--- a/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_4/out_of_sample/aryl_halide/ranking_test2/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_4/out_of_sample/aryl_halide/ranking_test2/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.403</v>
+        <v>-0.145</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20.248</v>
+        <v>28.438</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.486</v>
+        <v>-0.027</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.091</v>
+        <v>27.002</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.637</v>
+        <v>-0.021</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.58</v>
+        <v>27.802</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>3.217226789205593</v>
+        <v>29.00700888112335</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>20.1282584742756</v>
+        <v>29.00700891515447</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>24.21972671514869</v>
+        <v>29.00700890819506</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>26.937590461751</v>
+        <v>29.0070089143068</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5.424528908361989</v>
+        <v>29.00700892076162</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>24.54882278491538</v>
+        <v>29.00700895695976</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>7.592013335128378</v>
+        <v>29.0070088963118</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>25.14964511678003</v>
+        <v>29.00700893184366</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>30.05118745541064</v>
+        <v>29.00700892625991</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>32.78192089468266</v>
+        <v>29.00700893261401</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>10.77539185526613</v>
+        <v>29.00700893968748</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>30.62369924744338</v>
+        <v>29.00700897755968</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>8.520460978380662</v>
+        <v>29.00700889981394</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>26.11231011322409</v>
+        <v>29.00700893518675</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>31.12749990486257</v>
+        <v>29.00700892985374</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>33.84401784591955</v>
+        <v>29.00700893619345</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>11.86425625438636</v>
+        <v>29.00700894324518</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>31.74183761131354</v>
+        <v>29.00700898095043</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>5.96309016986401</v>
+        <v>29.0070088901004</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>23.51727180917415</v>
+        <v>29.00700892472767</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>28.32237247354856</v>
+        <v>29.00700891825704</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>31.05902330218866</v>
+        <v>29.00700892453234</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>8.917906891407618</v>
+        <v>29.00700893107474</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>28.76586498012903</v>
+        <v>29.00700896793651</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>28.1982891563379</v>
+        <v>29.00700894855884</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>33.07367069239412</v>
+        <v>29.00700895794764</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>10.97049245488988</v>
+        <v>29.0070089650009</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>32.47258952892314</v>
+        <v>29.00700900144157</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>38.83403672570275</v>
+        <v>29.00700899311949</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>43.57465705268972</v>
+        <v>29.00700900314545</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>35.09241098234676</v>
+        <v>29.00700897047076</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>40.02931584075047</v>
+        <v>29.00700898022241</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>17.03709203217507</v>
+        <v>29.00700898572869</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>39.26944167262337</v>
+        <v>29.00700902387813</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>46.57149720992936</v>
+        <v>29.00700901681611</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>51.34640320971598</v>
+        <v>29.00700902718008</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>36.32062269445766</v>
+        <v>29.00700897407984</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>41.24353359171111</v>
+        <v>29.00700898381823</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>18.30766165757562</v>
+        <v>29.0070089892044</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>40.55469667692795</v>
+        <v>29.00700902720105</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>47.97867560176182</v>
+        <v>29.00700902033662</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>52.73117756155783</v>
+        <v>29.00700903066837</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>33.17289144835335</v>
+        <v>29.00700895981889</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>38.12247936389583</v>
+        <v>29.00700896946356</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>14.80677383777981</v>
+        <v>29.0070089766701</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>37.06798091439704</v>
+        <v>29.00700901382955</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>44.29880427989363</v>
+        <v>29.00700900575796</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>49.08493112921569</v>
+        <v>29.00700901600883</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>9.083429764838112</v>
+        <v>29.00700888648018</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>27.39765620903676</v>
+        <v>29.00700892072783</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>30.67334042967023</v>
+        <v>29.00700891248039</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>33.05202546930672</v>
+        <v>29.00700891833877</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>8.814236225730724</v>
+        <v>29.00700892165183</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>29.07310847549392</v>
+        <v>29.00700895812522</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>13.23286120765659</v>
+        <v>29.00700890072024</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>32.19798173251905</v>
+        <v>29.00700893646015</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>36.22779839056327</v>
+        <v>29.00700892943988</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>38.60820831938395</v>
+        <v>29.00700893552418</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>13.89962492631327</v>
+        <v>29.00700893941238</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>34.88608176779676</v>
+        <v>29.00700897754721</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>14.06954571143982</v>
+        <v>29.00700890392091</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>33.05689683782806</v>
+        <v>29.00700893949385</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>37.19904863400971</v>
+        <v>29.00700893271981</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>39.56375307387285</v>
+        <v>29.00700893878646</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>14.91276413537829</v>
+        <v>29.00700894269634</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>35.9193273840325</v>
+        <v>29.00700898065834</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>11.74800842821892</v>
+        <v>29.00700889465892</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>30.73118669401527</v>
+        <v>29.00700892948604</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>34.66442079711798</v>
+        <v>29.00700892168009</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>37.0499231649592</v>
+        <v>29.00700892767523</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>12.1613623598925</v>
+        <v>29.00700893108734</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>33.16719569012787</v>
+        <v>29.0070089682146</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>32.29806627712771</v>
+        <v>29.00700894865278</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>36.44142699191161</v>
+        <v>29.00700895747367</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>14.2220384866956</v>
+        <v>29.00700896511624</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>36.65403586065796</v>
+        <v>29.00700900179271</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>42.35160380061733</v>
+        <v>29.00700899252636</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>46.37892100327138</v>
+        <v>29.00700900200729</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>38.87788377151719</v>
+        <v>29.00700896928153</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>43.06543340848665</v>
+        <v>29.00700897843722</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>19.95993233523738</v>
+        <v>29.0070089846749</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>43.12692057124575</v>
+        <v>29.00700902305011</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>49.7076685520807</v>
+        <v>29.00700901495838</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>53.74713985207572</v>
+        <v>29.00700902474222</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>40.01645329242232</v>
+        <v>29.00700897260796</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>44.19014673788546</v>
+        <v>29.00700898174463</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>21.13319901930936</v>
+        <v>29.00700898785761</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>44.30767925656392</v>
+        <v>29.00700902607471</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>51.00485596093627</v>
+        <v>29.00700901817759</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>55.02091946847222</v>
+        <v>29.00700902792344</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>37.10061660011081</v>
+        <v>29.00700895899226</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>41.29719707631603</v>
+        <v>29.00700896802428</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>17.88067981186993</v>
+        <v>29.00700897582465</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>41.09123023591042</v>
+        <v>29.00700901320879</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>47.60097002225815</v>
+        <v>29.00700900416451</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>51.65094442598195</v>
+        <v>29.00700901382689</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>7.688070538609708</v>
+        <v>29.00700888465173</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>25.89953820026087</v>
+        <v>29.00700891890577</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>29.20258993091335</v>
+        <v>29.00700891086032</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>31.52116933995642</v>
+        <v>29.00700891668707</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>9.203765053448354</v>
+        <v>29.00700892115947</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>29.4616530112783</v>
+        <v>29.00700895771852</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>11.87236322451401</v>
+        <v>29.00700889895646</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>30.73913230520365</v>
+        <v>29.00700893470873</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>34.80328779383643</v>
+        <v>29.00700892789557</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>37.12336282171124</v>
+        <v>29.00700893394777</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>14.33588407351077</v>
+        <v>29.00700893901499</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>35.32673949680643</v>
+        <v>29.00700897724092</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>12.73200000997082</v>
+        <v>29.00700890219543</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>31.62318747533733</v>
+        <v>29.0070089377821</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>35.8003623273429</v>
+        <v>29.00700893121217</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>38.10525861377404</v>
+        <v>29.00700893724711</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>15.36074290175913</v>
+        <v>29.00700894232381</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>36.37344683046486</v>
+        <v>29.00700898037726</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>10.36139965794725</v>
+        <v>29.00700889288351</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>29.24301457771385</v>
+        <v>29.00700892772162</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>33.20758849909934</v>
+        <v>29.00700892011405</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>35.53243163869217</v>
+        <v>29.00700892607751</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>12.58911616184235</v>
+        <v>29.00700893064951</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>33.59710306148767</v>
+        <v>29.00700896786656</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>32.8821939793371</v>
+        <v>29.00700894850637</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>36.94200108262446</v>
+        <v>29.00700895728527</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>14.17758250824681</v>
+        <v>29.00700896491747</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>36.6324812674772</v>
+        <v>29.0070090016822</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>42.49994199866786</v>
+        <v>29.00700899262626</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>46.44586716543796</v>
+        <v>29.00700900207186</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>39.52361747708606</v>
+        <v>29.00700896925087</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>43.62659807228159</v>
+        <v>29.0070089783623</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>19.96173172747963</v>
+        <v>29.00700898458661</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>43.15668516344798</v>
+        <v>29.00700902305473</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>49.91748165803038</v>
+        <v>29.00700901518741</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>53.87479371843201</v>
+        <v>29.00700902493569</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>40.67589729648819</v>
+        <v>29.00700897260172</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>44.76539432183682</v>
+        <v>29.00700898169373</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>21.14863552117042</v>
+        <v>29.00700898779216</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>44.35248206916026</v>
+        <v>29.00700902610284</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>51.23019190924721</v>
+        <v>29.00700901842889</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>55.16455253108946</v>
+        <v>29.00700902813916</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>37.73379130667927</v>
+        <v>29.00700895891032</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>41.8456727008673</v>
+        <v>29.00700896789748</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>17.86987798884837</v>
+        <v>29.00700897568991</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>41.10660647646468</v>
+        <v>29.0070090131678</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>47.79431926861265</v>
+        <v>29.0070090043365</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>51.76182014041144</v>
+        <v>29.00700901396199</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>1.926094315982283</v>
+        <v>29.00700887886299</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>18.39150441820045</v>
+        <v>29.00700891239645</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>22.54249803129741</v>
+        <v>29.00700890541636</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>25.08821838979038</v>
+        <v>29.00700891140282</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>3.824634007225775</v>
+        <v>29.00700891749311</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>22.44177205150806</v>
+        <v>29.00700895319174</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>6.210452699549577</v>
+        <v>29.00700889375472</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>23.31070396083483</v>
+        <v>29.00700892876461</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>28.25535377894107</v>
+        <v>29.00700892313847</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>30.81161340046833</v>
+        <v>29.00700892936299</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>9.052013239083589</v>
+        <v>29.00700893604833</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>28.37942521022962</v>
+        <v>29.00700897339293</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>7.138237006956171</v>
+        <v>29.00700889723224</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>24.27358734259097</v>
+        <v>29.00700893208543</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>29.32923540908881</v>
+        <v>29.00700892671036</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>31.8715760675295</v>
+        <v>29.00700893291971</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>10.13446719178517</v>
+        <v>29.00700893957791</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>29.49242232811654</v>
+        <v>29.00700897675778</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>4.585507115481182</v>
+        <v>29.00700888769981</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>21.68011334928591</v>
+        <v>29.00700892181999</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>26.53250338285822</v>
+        <v>29.00700891533027</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>29.09341330416255</v>
+        <v>29.00700892147506</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>7.202603663991038</v>
+        <v>29.00700892761409</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>26.52771650567706</v>
+        <v>29.00700896396559</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>26.11926854770925</v>
+        <v>29.00700894472207</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>30.78774277315846</v>
+        <v>29.00700895391678</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>9.445522459178051</v>
+        <v>29.0070089616555</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>30.4058382410471</v>
+        <v>29.00700899760639</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>36.84717599286527</v>
+        <v>29.00700898929056</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>41.37216284456329</v>
+        <v>29.00700899911896</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>32.85880351305784</v>
+        <v>29.00700896621657</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>37.58521393701549</v>
+        <v>29.00700897576601</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>15.38489143916685</v>
+        <v>29.00700898201501</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>37.06121372955199</v>
+        <v>29.00700901964701</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>44.42687431328839</v>
+        <v>29.00700901258552</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>48.98278494195056</v>
+        <v>29.00700902274321</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>34.07910931058302</v>
+        <v>29.00700896980116</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>38.79152902293766</v>
+        <v>29.0070089793361</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>16.64558238587671</v>
+        <v>29.00700898546626</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>38.33781610062623</v>
+        <v>29.00700902294691</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>45.82217201562</v>
+        <v>29.0070090160862</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>50.35598652358672</v>
+        <v>29.00700902621078</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>30.9479551830234</v>
+        <v>29.00700895578446</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>35.68591568830502</v>
+        <v>29.00700896522626</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>13.16618018217798</v>
+        <v>29.00700897314205</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>34.86904787562317</v>
+        <v>29.00700900979909</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>42.16617746917501</v>
+        <v>29.00700900174532</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>46.7322195465018</v>
+        <v>29.00700901179119</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>7.640349765860694</v>
+        <v>29.00700888781256</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>25.11696700720157</v>
+        <v>29.00700892181419</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>29.29933196119613</v>
+        <v>29.00700891479308</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>31.92623454108422</v>
+        <v>29.00700892084417</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>10.05697481711666</v>
+        <v>29.00700892705264</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>29.62536127290993</v>
+        <v>29.00700896318692</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>12.01528066660776</v>
+        <v>29.00700890290839</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>30.14068576729166</v>
+        <v>29.00700893839965</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>35.11776411153981</v>
+        <v>29.00700893274049</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>37.75414615645643</v>
+        <v>29.00700893902595</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>15.36639940014281</v>
+        <v>29.00700894577665</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>35.65892885560572</v>
+        <v>29.00700898356717</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>12.92165871452325</v>
+        <v>29.00700890632024</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>31.07740869159937</v>
+        <v>29.00700894165231</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>36.1663347558876</v>
+        <v>29.00700893624689</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>38.78744422642787</v>
+        <v>29.00700894251548</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>16.42369970370959</v>
+        <v>29.00700894923155</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>36.7425585492247</v>
+        <v>29.00700898685555</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>10.42085019941118</v>
+        <v>29.00700889675257</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>28.54997138225727</v>
+        <v>29.00700893134828</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>33.43475931313435</v>
+        <v>29.00700892482529</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>36.07687397872508</v>
+        <v>29.00700893103065</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>13.55898856627804</v>
+        <v>29.00700893725528</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>33.85762336882372</v>
+        <v>29.00700897405006</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>33.62619255559491</v>
+        <v>29.00700895495087</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>38.30921997324892</v>
+        <v>29.00700896417715</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>14.37836370750658</v>
+        <v>29.00700896984079</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>36.21721687107316</v>
+        <v>29.00700900617411</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>42.83258963371706</v>
+        <v>29.00700899799179</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>47.4045872949999</v>
+        <v>29.00700900787402</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>40.46555894002163</v>
+        <v>29.00700897663678</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>45.20324314890905</v>
+        <v>29.00700898621135</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>20.36703296092797</v>
+        <v>29.00700899028126</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>42.934385284979</v>
+        <v>29.00700902830456</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>50.47813663451802</v>
+        <v>29.00700902137839</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>55.07763409607327</v>
+        <v>29.00700903158425</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>41.65539005557988</v>
+        <v>29.00700898014362</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>21.60511628478399</v>
+        <v>29.00700899365554</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>44.18417211353331</v>
+        <v>29.00700903152524</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>51.84669161424824</v>
+        <v>29.00700902479822</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>56.42246948146227</v>
+        <v>29.00700903496882</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>38.60883602700171</v>
+        <v>29.00700896610655</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>43.35896726517266</v>
+        <v>29.00700897557225</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>18.1849190661563</v>
+        <v>29.00700898135676</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>40.78681441177091</v>
+        <v>29.00700901840104</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>48.2634178997092</v>
+        <v>29.00700901048193</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>52.87441560091032</v>
+        <v>29.00700902057539</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>11.89863506691239</v>
+        <v>29.0070088971591</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>29.29744308655443</v>
+        <v>29.00700892879087</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>32.71891606122389</v>
+        <v>29.00700892164071</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>34.79010029612512</v>
+        <v>29.00700892693411</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>14.81728045387097</v>
+        <v>29.00700893227604</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>34.09296367687332</v>
+        <v>29.00700896600258</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>15.79204038829823</v>
+        <v>29.0070089104757</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>33.79172911832484</v>
+        <v>29.00700894347363</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>37.91763261184403</v>
+        <v>29.00700893750644</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>39.98687769405483</v>
+        <v>29.00700894299808</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>19.57310989903991</v>
+        <v>29.00700894878186</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>39.52018423722583</v>
+        <v>29.00700898402915</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>16.57322756532258</v>
+        <v>29.00700891340215</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>34.59006379061567</v>
+        <v>29.00700894624673</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>38.81862273950176</v>
+        <v>29.00700894051077</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>40.87270594024048</v>
+        <v>29.0070089459841</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>20.49333931941074</v>
+        <v>29.0070089517401</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>40.45525794844978</v>
+        <v>29.00700898682795</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>14.39530274268466</v>
+        <v>29.00700890486615</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>32.41635616709797</v>
+        <v>29.00700893703477</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>36.45555031889248</v>
+        <v>29.00700893032548</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>38.52931151107413</v>
+        <v>29.00700893573906</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>17.98546687629582</v>
+        <v>29.00700894107196</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>37.95558268496809</v>
+        <v>29.00700897540267</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>37.59981975667137</v>
+        <v>29.00700895786874</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>41.35442778077289</v>
+        <v>29.00700896591367</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>18.38251918192524</v>
+        <v>29.00700897065742</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>39.58746085348002</v>
+        <v>29.00700900451994</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>45.24860207200977</v>
+        <v>29.00700899648255</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>48.88529491530774</v>
+        <v>29.00700900514101</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>43.74025727077093</v>
+        <v>29.00700897704857</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>47.53096632248783</v>
+        <v>29.00700898538863</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>23.71462121579466</v>
+        <v>29.00700898872874</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>52.07856490973938</v>
+        <v>29.00700901722985</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>55.72313096091385</v>
+        <v>29.00700902615611</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>44.76902924620576</v>
+        <v>29.00700898004406</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>48.54534361516841</v>
+        <v>29.00700898836407</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>24.78916977004111</v>
+        <v>29.00700899161109</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>46.67396079575727</v>
+        <v>29.00700902688084</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>53.26151062258766</v>
+        <v>29.00700902014463</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>56.88336373898423</v>
+        <v>29.00700902903412</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>42.12691990032921</v>
+        <v>29.00700896752052</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>45.92715259081822</v>
+        <v>29.00700897575245</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>21.79705184224772</v>
+        <v>29.00700898062105</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>43.72435148384434</v>
+        <v>29.00700901513532</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>50.14452962951171</v>
+        <v>29.00700900732485</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>53.79902253727357</v>
+        <v>29.00700901614467</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>1.993050958359369</v>
+        <v>29.00700888033727</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>17.64558610653891</v>
+        <v>29.00700891154758</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>21.15950753758361</v>
+        <v>29.00700890487288</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>23.37523057713421</v>
+        <v>29.00700891021149</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>5.578676541074596</v>
+        <v>29.00700891677866</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>23.4078422831847</v>
+        <v>29.00700895016893</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>5.839727390554952</v>
+        <v>29.00700889369329</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>22.08322862002608</v>
+        <v>29.00700892627574</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>26.32944150451573</v>
+        <v>29.00700892080022</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>28.55239044241296</v>
+        <v>29.00700892635734</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>10.36768966767684</v>
+        <v>29.00700893359783</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>28.86124855505168</v>
+        <v>29.00700896852515</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>6.667702646195075</v>
+        <v>29.00700889681195</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>22.93958713662677</v>
+        <v>29.00700892924349</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>27.28905189767422</v>
+        <v>29.00700892398699</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>29.5002300861981</v>
+        <v>29.00700892953273</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>11.34403127278069</v>
+        <v>29.00700893677199</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>29.86099207784688</v>
+        <v>29.00700897154083</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>4.377226292059841</v>
+        <v>29.00700888804568</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>20.62081924646618</v>
+        <v>29.00700891979168</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>24.77705362140673</v>
+        <v>29.00700891352365</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>27.00445101451994</v>
+        <v>29.00700891900166</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>8.693767667418392</v>
+        <v>29.00700892573367</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>27.19182818245038</v>
+        <v>29.00700895972791</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>26.63564990858123</v>
+        <v>29.00700894218685</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>30.73229848676245</v>
+        <v>29.00700895043589</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>11.23037449133762</v>
+        <v>29.00700895835862</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>31.23984531578505</v>
+        <v>29.00700899197687</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>36.75977065036212</v>
+        <v>29.00700898412394</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>40.71246671566669</v>
+        <v>29.00700899296884</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>32.8311657931859</v>
+        <v>29.00700896171122</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>36.97953184879347</v>
+        <v>29.00700897028624</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>16.67405082676345</v>
+        <v>29.00700897692305</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>37.35693111339863</v>
+        <v>29.00700901211207</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>43.72316722015205</v>
+        <v>29.00700900538793</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>47.70035967066163</v>
+        <v>29.00700901453436</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>33.9302603067043</v>
+        <v>29.00700896492033</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>38.06805829350588</v>
+        <v>29.00700897348377</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>17.80910417892402</v>
+        <v>29.00700898001672</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>38.50330125615505</v>
+        <v>29.0070090150629</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>44.9784127362595</v>
+        <v>29.00700900850977</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>48.9368624223885</v>
+        <v>29.00700901762729</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>31.10417999182472</v>
+        <v>29.00700895197936</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>35.26250213642058</v>
+        <v>29.00700896044482</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>14.66839730110357</v>
+        <v>29.00700896858593</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>35.38030076304209</v>
+        <v>29.00700900286536</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>41.67975492868013</v>
+        <v>29.00700899520976</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>45.66639432901513</v>
+        <v>29.00700900424303</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>0.7155681752394898</v>
+        <v>29.00700887997114</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>17.80332588456907</v>
+        <v>29.00700891377312</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>21.70830121798654</v>
+        <v>29.0070089065074</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>24.24498717236074</v>
+        <v>29.00700891247789</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>2.279466263028908</v>
+        <v>29.0070089182906</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>21.45101892088695</v>
+        <v>29.007008954244</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>4.93814040355759</v>
+        <v>29.00700889470064</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>22.66771120129665</v>
+        <v>29.00700892998436</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>27.35763072723432</v>
+        <v>29.00700892405405</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>29.90344628109909</v>
+        <v>29.00700893025904</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>7.423888770103819</v>
+        <v>29.00700893662474</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>27.31286953678785</v>
+        <v>29.00700897422698</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>5.865303673736562</v>
+        <v>29.00700889813437</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>23.62645442123345</v>
+        <v>29.00700893325841</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>28.42807119914797</v>
+        <v>29.00700892757775</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>30.95936881766329</v>
+        <v>29.00700893376766</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>8.506628002825956</v>
+        <v>29.00700894010964</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>28.42323920220746</v>
+        <v>29.00700897754461</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>3.307724521282744</v>
+        <v>29.00700888870719</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>21.03876123786543</v>
+        <v>29.00700892309556</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>25.63534329718571</v>
+        <v>29.00700891630747</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>28.18593816803146</v>
+        <v>29.00700892243368</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>5.572680582996504</v>
+        <v>29.00700892827874</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>25.46556760660712</v>
+        <v>29.00700896488515</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>25.10246186540778</v>
+        <v>29.00700894572517</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>29.66888454477823</v>
+        <v>29.00700895486693</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>7.357598304465007</v>
+        <v>29.0070089620605</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>28.8372689142144</v>
+        <v>29.00700899823248</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>35.13291880687655</v>
+        <v>29.00700898981453</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>39.62197694883053</v>
+        <v>29.00700899964055</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>31.75938815295419</v>
+        <v>29.00700896699427</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>36.38034533761517</v>
+        <v>29.00700897648669</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>13.19540143006198</v>
+        <v>29.00700898218106</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>35.39790805841707</v>
+        <v>29.00700902003699</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>42.61038873847758</v>
+        <v>29.0070090128562</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>47.12772116718563</v>
+        <v>29.00700902300926</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>32.97600874000983</v>
+        <v>29.00700897052813</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>37.5826033653353</v>
+        <v>29.00700898000545</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>14.45477822425003</v>
+        <v>29.00700898558553</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>36.67033575410196</v>
+        <v>29.00700902328732</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>44.00105794784305</v>
+        <v>29.0070090163023</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>48.4956938493427</v>
+        <v>29.0070090264224</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>29.8547360997856</v>
+        <v>29.00700895664106</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>34.48684360089246</v>
+        <v>29.00700896602342</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>10.975494012278</v>
+        <v>29.00700897340135</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>33.21039333682127</v>
+        <v>29.00700901027786</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>40.35465087964833</v>
+        <v>29.00700900210106</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>44.88226709901791</v>
+        <v>29.00700901214294</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>14.15432747267156</v>
+        <v>29.00700890097578</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>32.46577231549044</v>
+        <v>29.00700893394878</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>36.3102070236164</v>
+        <v>29.00700892704716</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>38.45974233653881</v>
+        <v>29.007008932652</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>13.14367502305331</v>
+        <v>29.00700893422885</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>33.32432804814012</v>
+        <v>29.00700896929404</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>18.27649734076833</v>
+        <v>29.00700891506024</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>37.21818587546517</v>
+        <v>29.0070089494631</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>41.81779485574526</v>
+        <v>29.00700894378247</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>43.96594572778433</v>
+        <v>29.00700894960111</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>18.14178349775115</v>
+        <v>29.00700895164791</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>39.02507437451621</v>
+        <v>29.00700898830393</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>19.07985899242989</v>
+        <v>29.00700891804287</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>38.03888766675001</v>
+        <v>29.00700895228684</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>42.74609703176766</v>
+        <v>29.00700894683095</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>44.87959537731226</v>
+        <v>29.00700895263176</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>19.11905317282168</v>
+        <v>29.00700895472103</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>40.01739409526771</v>
+        <v>29.00700899121212</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>16.86648772543373</v>
+        <v>29.00700890894139</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>35.83185384435016</v>
+        <v>29.00700894247784</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>40.3384059804985</v>
+        <v>29.0070089360056</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>42.49172402976176</v>
+        <v>29.00700894173882</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>16.48612170004398</v>
+        <v>29.00700894341403</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>37.39404184113533</v>
+        <v>29.00700897911323</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>37.15684139391181</v>
+        <v>29.00700896123536</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>40.95212435058063</v>
+        <v>29.00700896965495</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>17.8257614371713</v>
+        <v>29.00700897459397</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>40.06397412250297</v>
+        <v>29.00700900981672</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>46.16864549950044</v>
+        <v>29.00700900178944</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>49.84823452035515</v>
+        <v>29.00700901084321</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>43.62460740134171</v>
+        <v>29.0070089814494</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>47.45737834640128</v>
+        <v>29.00700899018394</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>23.43664088677048</v>
+        <v>29.0070089936369</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>46.38503129031212</v>
+        <v>29.00700903048374</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>53.36641148802197</v>
+        <v>29.00700902361753</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>57.05318488057213</v>
+        <v>29.0070090329558</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>44.71793394043541</v>
+        <v>29.00700898455515</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>48.5375544009529</v>
+        <v>29.00700899327096</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>24.56921731766081</v>
+        <v>29.0070089966169</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>47.52083775065403</v>
+        <v>29.00700903331374</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>54.6141134735249</v>
+        <v>29.00700902662467</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>58.27871864769408</v>
+        <v>29.00700903592559</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>41.93965938262964</v>
+        <v>29.00700897130236</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>45.7812412877067</v>
+        <v>29.00700897992178</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>21.44454105464082</v>
+        <v>29.00700898497406</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>44.4409846850677</v>
+        <v>29.0070090208832</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>51.35462268058836</v>
+        <v>29.00700901307226</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>55.05130638397292</v>
+        <v>29.0070090222959</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>-0.8703915152146742</v>
+        <v>29.00700887306929</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>14.1345755544085</v>
+        <v>29.00700890381398</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>16.93546632016704</v>
+        <v>29.00700889631526</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>19.35203362281525</v>
+        <v>29.00700890165102</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>1.921744025276062</v>
+        <v>29.00700890801435</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>18.95634516363471</v>
+        <v>29.00700894089508</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>2.875919431949267</v>
+        <v>29.00700888602261</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>18.46322818731772</v>
+        <v>29.00700891813196</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>21.95320115242572</v>
+        <v>29.00700891176927</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>24.38293105691042</v>
+        <v>29.0070089173262</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>6.610662864497371</v>
+        <v>29.00700892439955</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>24.30038175474574</v>
+        <v>29.00700895880711</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>3.701338225727561</v>
+        <v>29.00700888916553</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>19.31907594525361</v>
+        <v>29.00700892112404</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>22.91017131075803</v>
+        <v>29.0070089149864</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>25.32809409931791</v>
+        <v>29.00700892053483</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>7.587900433631951</v>
+        <v>29.00700892759615</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>25.30403883821771</v>
+        <v>29.00700896184497</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>1.412149392867374</v>
+        <v>29.00700888059432</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>16.99671993437629</v>
+        <v>29.00700891185996</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>20.39838402393714</v>
+        <v>29.0070089047524</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>22.83219546639892</v>
+        <v>29.00700891023483</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>4.935136231478776</v>
+        <v>29.00700891672513</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>22.62551634831697</v>
+        <v>29.00700895019155</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>21.39850302470691</v>
+        <v>29.00700893211121</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>25.66460249398368</v>
+        <v>29.00700894032008</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>7.799537078291056</v>
+        <v>29.00700894973042</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>26.90621937638532</v>
+        <v>29.0070089828308</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>31.6235282401694</v>
+        <v>29.0070089742748</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>35.83555959610033</v>
+        <v>29.00700898310387</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>27.4408468856976</v>
+        <v>29.00700895112818</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>31.76521930559076</v>
+        <v>29.00700895966872</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>13.12348793847474</v>
+        <v>29.00700896790492</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>32.8913025113791</v>
+        <v>29.00700900256548</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>38.40986909276448</v>
+        <v>29.00700899507633</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>42.65463983097606</v>
+        <v>29.00700900421587</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>28.5413603158753</v>
+        <v>29.00700895436296</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>32.85593014978947</v>
+        <v>29.00700896289596</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>14.25092514344754</v>
+        <v>29.00700897102366</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>34.03291788102235</v>
+        <v>29.00700900553998</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>39.6582442313158</v>
+        <v>29.00700899822522</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>43.88486687890425</v>
+        <v>29.00700900734059</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>25.7085544984993</v>
+        <v>29.00700894162332</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>30.04198022136419</v>
+        <v>29.00700895005724</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>11.1356111188019</v>
+        <v>29.00700895972161</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>30.92762948027206</v>
+        <v>29.00700899346189</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>36.38056025768386</v>
+        <v>29.00700898508398</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>40.63442976955588</v>
+        <v>29.00700899411378</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>4.301575267681791</v>
+        <v>29.00700888065805</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>21.38511326405386</v>
+        <v>29.0070089132859</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>24.33233263492049</v>
+        <v>29.00700890516279</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>26.51749282471396</v>
+        <v>29.00700891065709</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>8.72790142120736</v>
+        <v>29.00700891811968</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>27.84202721401336</v>
+        <v>29.00700895302958</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>8.206856545262045</v>
+        <v>29.00700889405918</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>25.91120293506732</v>
+        <v>29.00700892811131</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>29.57005049123518</v>
+        <v>29.00700892116281</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>31.75589570701245</v>
+        <v>29.0070089268682</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>13.56597909288508</v>
+        <v>29.00700893495267</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>33.37671611138156</v>
+        <v>29.00700897144993</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>9.043224837311701</v>
+        <v>29.00700889721243</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>26.77210789418972</v>
+        <v>29.00700893110632</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>30.53815618853788</v>
+        <v>29.00700892439967</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>32.70907393818018</v>
+        <v>29.00700893008797</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>14.54030378952502</v>
+        <v>29.00700893813698</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>34.37310175426525</v>
+        <v>29.00700897446939</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>6.720515871607979</v>
+        <v>29.00700888850987</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>24.43630120810027</v>
+        <v>29.00700892169201</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>28.00199390969557</v>
+        <v>29.00700891400007</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>30.19183969828673</v>
+        <v>29.00700891962218</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>11.88403960652465</v>
+        <v>29.00700892714318</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>31.70897454652601</v>
+        <v>29.00700896267895</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>31.01362337432631</v>
+        <v>29.00700894391879</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>34.93131663379098</v>
+        <v>29.00700895227468</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>13.29935889349081</v>
+        <v>29.00700896016296</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>34.50577912421906</v>
+        <v>29.00700899527787</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>39.97961187534473</v>
+        <v>29.00700898634412</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>43.79589377768369</v>
+        <v>29.0070089953451</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>37.27560468999076</v>
+        <v>29.00700896349957</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>41.23422619700848</v>
+        <v>29.00700897216857</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>18.76197238715465</v>
+        <v>29.00700897875707</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>40.67095078694036</v>
+        <v>29.0070090154955</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>46.98586698084033</v>
+        <v>29.00700900769816</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>50.81310593068621</v>
+        <v>29.00700901698498</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>38.37070830943993</v>
+        <v>29.00700896672832</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>42.31553174572703</v>
+        <v>29.0070089753771</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>19.89304718185679</v>
+        <v>29.00700898184863</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>41.81148533514747</v>
+        <v>29.00700901843575</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>48.23677380478188</v>
+        <v>29.00700901082921</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>52.04125076018867</v>
+        <v>29.0070090200788</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>35.55239496657346</v>
+        <v>29.00700895381884</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>39.51995549731882</v>
+        <v>29.00700896236898</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>16.74860990619767</v>
+        <v>29.00700897043069</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>38.69549525617674</v>
+        <v>29.00700900622259</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>44.94214176263459</v>
+        <v>29.00700899751442</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>48.77940507111051</v>
+        <v>29.00700900668478</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>-0.4038499953116705</v>
+        <v>29.00700887178328</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>15.45670591062605</v>
+        <v>29.00700890385978</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>18.61548505485049</v>
+        <v>29.00700889583484</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>20.71156381826645</v>
+        <v>29.00700890127102</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>-0.04046932925655611</v>
+        <v>29.00700890610818</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>17.76709568224329</v>
+        <v>29.00700894035133</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>3.413469040179606</v>
+        <v>29.00700888502969</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>19.87639714368161</v>
+        <v>29.00700891850881</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>23.75604437086866</v>
+        <v>29.00700891166549</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>25.85609073749983</v>
+        <v>29.00700891732604</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>4.674248572675413</v>
+        <v>29.00700892275349</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>23.15679139878031</v>
+        <v>29.00700895856008</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>4.261276089533826</v>
+        <v>29.00700888824036</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>20.75426867472691</v>
+        <v>29.00700892156279</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>24.74058221225345</v>
+        <v>29.00700891495814</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>26.82781580551774</v>
+        <v>29.00700892060544</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>5.683161081652688</v>
+        <v>29.0070089260303</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>24.19302936610466</v>
+        <v>29.00700896167415</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>1.925676533362253</v>
+        <v>29.00700887947414</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>18.38939549188098</v>
+        <v>29.00700891209198</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>22.17740698858401</v>
+        <v>29.00700890449076</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>24.27999385566198</v>
+        <v>29.00700891006353</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>2.942363777471595</v>
+        <v>29.00700891499901</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>21.42823116960191</v>
+        <v>29.00700894985511</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>20.66888534328234</v>
+        <v>29.00700893100286</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>24.54305691915787</v>
+        <v>29.00700893932349</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>6.775328722832633</v>
+        <v>29.00700895035336</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>26.82674777371131</v>
+        <v>29.00700898489539</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>32.2505255337151</v>
+        <v>29.00700897592248</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>35.96116629655984</v>
+        <v>29.00700898483672</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>26.78831487591211</v>
+        <v>29.00700895037116</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>30.70923204232689</v>
+        <v>29.00700895902395</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>12.1703385088451</v>
+        <v>29.00700896887551</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>32.90620374420516</v>
+        <v>29.0070090050194</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>39.17329117037206</v>
+        <v>29.00700899719555</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>42.90032059682311</v>
+        <v>29.0070090064103</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>27.92582779803106</v>
+        <v>29.00700895369738</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>31.83529500150487</v>
+        <v>29.00700896233463</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>13.33115982620857</v>
+        <v>29.007008972052</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>34.08182863391437</v>
+        <v>29.00700900804757</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>40.45972629167733</v>
+        <v>29.00700900041682</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>44.1666481596401</v>
+        <v>29.00700900959811</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>25.00051812336079</v>
+        <v>29.00700894075739</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>28.92905646414806</v>
+        <v>29.00700894928336</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>10.11665667754717</v>
+        <v>29.00700896054746</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>30.88012765837284</v>
+        <v>29.00700899575845</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>37.07853429378447</v>
+        <v>29.00700898701464</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>40.81361359552476</v>
+        <v>29.00700899610619</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>-4.757809078171967</v>
+        <v>29.00700886729361</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>9.859538537344598</v>
+        <v>29.0070088978122</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>12.78526429695241</v>
+        <v>29.00700888981137</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>14.67874161423063</v>
+        <v>29.00700889491529</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>-3.073876372590693</v>
+        <v>29.00700890084774</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>13.43928282757385</v>
+        <v>29.00700893348924</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>-1.213913869810995</v>
+        <v>29.00700887965329</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>13.9719158941787</v>
+        <v>29.00700891150674</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>17.57435259335312</v>
+        <v>29.0070089046234</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>19.46931202379976</v>
+        <v>29.00700890993512</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>1.333822184660047</v>
+        <v>29.00700891647744</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>18.48561670142221</v>
+        <v>29.00700895060846</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>-0.3803288641417168</v>
+        <v>29.00700888278477</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>14.83695095820135</v>
+        <v>29.00700891448909</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>18.53955342860531</v>
+        <v>29.00700890783817</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>20.4224192237446</v>
+        <v>29.00700891313684</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>2.310444508054381</v>
+        <v>29.00700891966189</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>19.49106046933642</v>
+        <v>29.00700895363742</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>-2.687281013747356</v>
+        <v>29.00700887460655</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>12.49427050012393</v>
+        <v>29.00700890564091</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>16.01072381790013</v>
+        <v>29.00700889804453</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>17.90713462267518</v>
+        <v>29.00700890327596</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>-0.3566200488282405</v>
+        <v>29.00700890929227</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>16.79374474327955</v>
+        <v>29.00700894251695</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>16.20999511428851</v>
+        <v>29.00700892426316</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>19.8177927224727</v>
+        <v>29.00700893212216</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>3.464322798844677</v>
+        <v>29.00700894370543</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>22.10528780159966</v>
+        <v>29.00700897661923</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>27.32707744553587</v>
+        <v>29.00700896779389</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>30.78726715476004</v>
+        <v>29.00700897626371</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>21.94365931297423</v>
+        <v>29.00700894248219</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>25.59384319919685</v>
+        <v>29.0070089506507</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>8.525139611047152</v>
+        <v>29.00700896118856</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>27.81258754524404</v>
+        <v>29.00700899562832</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>33.83221341139538</v>
+        <v>29.00700898790486</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>37.30623327863677</v>
+        <v>29.00700899665687</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>23.04365271951863</v>
+        <v>29.00700894571711</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>26.68299518093393</v>
+        <v>29.00700895387044</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>9.646992765965916</v>
+        <v>29.00700896427971</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>28.95099421299295</v>
+        <v>29.00700899857731</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>35.0745299653673</v>
+        <v>29.00700899104297</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>38.52951441796335</v>
+        <v>29.00700899976267</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>20.1968433941188</v>
+        <v>29.00700893352849</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>23.85348463235971</v>
+        <v>29.00700894158128</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>6.527658770367669</v>
+        <v>29.00700895341084</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>25.83700103813393</v>
+        <v>29.00700898696013</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>31.79289438161026</v>
+        <v>29.00700897835506</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>35.2737788327632</v>
+        <v>29.00700898699312</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>4.005061117078832</v>
+        <v>29.00700888033376</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>20.88088031408724</v>
+        <v>29.00700891438575</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>24.84262752982495</v>
+        <v>29.00700890717263</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>27.50904448150395</v>
+        <v>29.00700891327362</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>4.127840897199114</v>
+        <v>29.00700891798799</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>23.13420183766929</v>
+        <v>29.0070089541791</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>8.390503593931079</v>
+        <v>29.00700889553369</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>25.91190089248253</v>
+        <v>29.00700893108641</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>30.68215557754696</v>
+        <v>29.00700892524849</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>33.35954271230606</v>
+        <v>29.00700893159077</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>9.450796272271699</v>
+        <v>29.00700893683558</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>29.17826742568014</v>
+        <v>29.0070089746966</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>9.320157608705081</v>
+        <v>29.00700889903819</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>26.87574467763429</v>
+        <v>29.0070089344308</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>31.76175445067609</v>
+        <v>29.00700892884834</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>34.42463017372155</v>
+        <v>29.0070089351765</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>10.55003387244165</v>
+        <v>29.0070089404118</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>30.30720556367717</v>
+        <v>29.00700897810554</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>6.782260429988185</v>
+        <v>29.00700888925609</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>24.30012195227869</v>
+        <v>29.00700892390098</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>28.97306949973857</v>
+        <v>29.00700891718149</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>31.65605712474363</v>
+        <v>29.00700892344679</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>7.592999256911021</v>
+        <v>29.00700892823226</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>27.31962264341574</v>
+        <v>29.00700896508558</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>26.67598139848972</v>
+        <v>29.00700894553109</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>31.38228732805379</v>
+        <v>29.0070089548315</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>10.15151160765133</v>
+        <v>29.00700896294081</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>31.5685751876064</v>
+        <v>29.00700899939254</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>37.81571176502335</v>
+        <v>29.00700899086947</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>42.39284501137592</v>
+        <v>29.00700900081724</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>33.537522906781</v>
+        <v>29.00700896737506</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>38.30156920489918</v>
+        <v>29.00700897703393</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>16.1895524542023</v>
+        <v>29.00700898362073</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>38.3355870121475</v>
+        <v>29.00700902177847</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>45.52132158706407</v>
+        <v>29.00700901453443</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>50.12874512123014</v>
+        <v>29.00700902481458</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>34.7782446059787</v>
+        <v>29.00700897100906</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>39.52840860673697</v>
+        <v>29.00700898065446</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>17.46423373003283</v>
+        <v>29.00700898710764</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>39.62539912537025</v>
+        <v>29.00700902511227</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>46.93462101674088</v>
+        <v>29.00700901807259</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>51.51972339622874</v>
+        <v>29.00700902832011</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>31.61641858909468</v>
+        <v>29.00700895673136</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>36.39210122502301</v>
+        <v>29.00700896628406</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>13.96507057463317</v>
+        <v>29.00700897454987</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>36.13912861161364</v>
+        <v>29.00700901171968</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>43.25257460446925</v>
+        <v>29.00700900345929</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>47.87044544814754</v>
+        <v>29.00700901362844</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>7.684430274515705</v>
+        <v>29.0070088822155</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>24.31370354302522</v>
+        <v>29.00700891451089</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>27.41672209500868</v>
+        <v>29.00700890660908</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>29.78069406327654</v>
+        <v>29.00700891218307</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>7.568552930973663</v>
+        <v>29.00700891599075</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>26.13738266432004</v>
+        <v>29.00700895042278</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>11.58703627915653</v>
+        <v>29.00700889561314</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>28.83069551461244</v>
+        <v>29.00700892932436</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>32.64115135304797</v>
+        <v>29.00700892257886</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>35.01036757066075</v>
+        <v>29.00700892837355</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>12.3806040932322</v>
+        <v>29.00700893280069</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>31.63768729569146</v>
+        <v>29.00700896881054</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>12.3842688222084</v>
+        <v>29.00700889871952</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>29.65448837370059</v>
+        <v>29.00700893227295</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>33.56909589273025</v>
+        <v>29.00700892576213</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>35.92394950816539</v>
+        <v>29.00700893154255</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>13.34846365248447</v>
+        <v>29.00700893598849</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>32.62932880670382</v>
+        <v>29.00700897183471</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>10.16805661779608</v>
+        <v>29.00700888995618</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>27.42025375428469</v>
+        <v>29.00700892279843</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>31.14271903590383</v>
+        <v>29.00700891530744</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>33.5168238082885</v>
+        <v>29.00700892101882</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>10.71861127536197</v>
+        <v>29.00700892494876</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>29.98642444463878</v>
+        <v>29.00700895999727</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>29.10220706899869</v>
+        <v>29.00700894128395</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>33.1751437901338</v>
+        <v>29.00700894970532</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>12.88191954252037</v>
+        <v>29.00700895814913</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>33.54620397126009</v>
+        <v>29.00700899279485</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>38.9075302665855</v>
+        <v>29.00700898390117</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>42.89449673257644</v>
+        <v>29.00700899295582</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>35.32295388101201</v>
+        <v>29.00700896080496</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>39.44330919982173</v>
+        <v>29.00700896955307</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>18.32308345655398</v>
+        <v>29.00700897673122</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>39.68214283283757</v>
+        <v>29.00700901299042</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>45.8749015026234</v>
+        <v>29.00700900519849</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>49.87969383141522</v>
+        <v>29.00700901455247</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>36.4130439325645</v>
+        <v>29.00700896403397</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>40.52122148709805</v>
+        <v>29.00700897276707</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>19.44352615292379</v>
+        <v>29.00700897982422</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>40.81391650401856</v>
+        <v>29.00700901593353</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>47.11591971103142</v>
+        <v>29.00700900832567</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>51.09946346861241</v>
+        <v>29.00700901764703</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>33.61778638225418</v>
+        <v>29.00700895108526</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>37.74680323318312</v>
+        <v>29.00700895971799</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>16.33797581422509</v>
+        <v>29.0070089683508</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>37.73116875250523</v>
+        <v>29.00700900366486</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>43.85897243263292</v>
+        <v>29.00700899496988</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>47.8737693811001</v>
+        <v>29.00700900420869</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>8.728909966735479</v>
+        <v>29.00700889016454</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>27.14522181923065</v>
+        <v>29.00700892538077</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>31.40087474438825</v>
+        <v>29.00700891824074</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>34.08471910858334</v>
+        <v>29.00700892450695</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>8.912109177646155</v>
+        <v>29.00700892865793</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>29.42748595133776</v>
+        <v>29.00700896603749</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>13.26095456234114</v>
+        <v>29.00700890578284</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>32.34970839015518</v>
+        <v>29.00700894254095</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>37.43387495214888</v>
+        <v>29.00700893679731</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>40.12561590840264</v>
+        <v>29.00700894330463</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>14.40080186138103</v>
+        <v>29.00700894798685</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>35.66674539191784</v>
+        <v>29.00700898708225</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>14.18295513275347</v>
+        <v>29.00700890923791</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>33.30047170159374</v>
+        <v>29.00700894583091</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>38.50170915234861</v>
+        <v>29.00700894034245</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>41.17768513792444</v>
+        <v>29.00700894683214</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>15.49673348011469</v>
+        <v>29.0070089515158</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>36.78779155663808</v>
+        <v>29.00700899043909</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>11.64639844561552</v>
+        <v>29.00700889929804</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>30.74374342013177</v>
+        <v>29.00700893512795</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>35.72886423560639</v>
+        <v>29.00700892849002</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>38.42686547128941</v>
+        <v>29.00700893491436</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>12.53929158361716</v>
+        <v>29.00700893912977</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>33.8153835701096</v>
+        <v>29.00700897719335</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>33.38708393362818</v>
+        <v>29.00700895751924</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>38.1233587615361</v>
+        <v>29.00700896703451</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>14.0299781688596</v>
+        <v>29.00700897274794</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>36.88463380429586</v>
+        <v>29.0070090103378</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>43.5646364352186</v>
+        <v>29.00700900185815</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>48.17659952068369</v>
+        <v>29.00700901203579</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>40.46522607338641</v>
+        <v>29.00700897990295</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>45.25559000310145</v>
+        <v>29.00700898977743</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>20.21946634491614</v>
+        <v>29.00700899384348</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>43.83038956087766</v>
+        <v>29.00700903318443</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>51.47361459585701</v>
+        <v>29.00700902598794</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>56.1105673376392</v>
+        <v>29.00700903649699</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>41.69824761120751</v>
+        <v>29.00700898348117</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>46.4732755184534</v>
+        <v>29.00700899333862</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>21.49679689283276</v>
+        <v>29.00700899728352</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>45.11829898988185</v>
+        <v>29.00700903646651</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>52.88584029355881</v>
+        <v>29.00700902947071</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>57.49856445955692</v>
+        <v>29.00700903994309</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>38.55321610730165</v>
+        <v>29.00700896896532</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>43.35572151507985</v>
+        <v>29.00700897872825</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>17.97934856600347</v>
+        <v>29.00700898455437</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>41.62921550449501</v>
+        <v>29.00700902288212</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>49.19993642802619</v>
+        <v>29.00700901466042</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>53.84838497432838</v>
+        <v>29.00700902505384</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>6.749110175030719</v>
+        <v>29.00700888837774</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>24.02246681650733</v>
+        <v>29.00700892176419</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>28.35698463886334</v>
+        <v>29.00700891509409</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>31.03397330149912</v>
+        <v>29.00700892107846</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>8.011538815986498</v>
+        <v>29.00700892657431</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>27.41434182025129</v>
+        <v>29.00700896200235</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>11.1796696707213</v>
+        <v>29.00700890334084</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>29.1048059600345</v>
+        <v>29.00700893819061</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>34.25394948728979</v>
+        <v>29.00700893288073</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>36.94150427477772</v>
+        <v>29.00700893909968</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>13.38445619588052</v>
+        <v>29.00700894512704</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>33.51520199052605</v>
+        <v>29.00700898218335</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>12.10152744547431</v>
+        <v>29.00700890672734</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>30.05989901186692</v>
+        <v>29.00700894142211</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>35.3227903053931</v>
+        <v>29.0070089363604</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>37.99531902883834</v>
+        <v>29.00700894256325</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>14.46696126929287</v>
+        <v>29.00700894856309</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>34.62654082453061</v>
+        <v>29.00700898545696</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>9.570449354523962</v>
+        <v>29.00700889722669</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>27.49497893888115</v>
+        <v>29.00700893119797</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>32.54958620694408</v>
+        <v>29.00700892502226</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>35.24297635155471</v>
+        <v>29.00700893116253</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>11.54442927934205</v>
+        <v>29.0070089366865</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>31.67723438813645</v>
+        <v>29.00700897276286</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>31.40740266440923</v>
+        <v>29.0070089540114</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>36.19137996849695</v>
+        <v>29.00700896315214</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>12.9910493588908</v>
+        <v>29.00700896906125</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>34.74002334931584</v>
+        <v>29.00700900470344</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>41.49232223997549</v>
+        <v>29.00700899676623</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>46.14599746586192</v>
+        <v>29.00700900653416</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>38.33305337694369</v>
+        <v>29.00700897548753</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>43.17444026287068</v>
+        <v>29.00700898497777</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>19.06627309500097</v>
+        <v>29.00700898934471</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>41.54844625626524</v>
+        <v>29.00700902664755</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>49.24931525981215</v>
+        <v>29.00700901995366</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>53.93284233433464</v>
+        <v>29.00700903004774</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>39.55379427009581</v>
+        <v>29.0070089789773</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>44.38009813943588</v>
+        <v>29.0070089884518</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>20.33117172721916</v>
+        <v>29.00700899270517</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>42.82733802741888</v>
+        <v>29.00700902985843</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>50.64949359435118</v>
+        <v>29.0070090233603</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>55.30958217946454</v>
+        <v>29.00700903342079</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>36.43633755194611</v>
+        <v>29.00700896506647</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>41.29021013057604</v>
+        <v>29.00700897445032</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>16.84982458604709</v>
+        <v>29.00700898048956</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>39.36331655146881</v>
+        <v>29.00700901683064</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>46.9953857757593</v>
+        <v>29.00700900915469</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>51.69011813592343</v>
+        <v>29.00700901913758</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>5.97267926492481</v>
+        <v>29.00700888271692</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>23.9863647554441</v>
+        <v>29.00700891708092</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>27.22055175984082</v>
+        <v>29.00700890920795</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>29.81379234449758</v>
+        <v>29.00700891521003</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>6.430695537457233</v>
+        <v>29.00700891908866</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>26.49147702724942</v>
+        <v>29.00700895570166</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>10.29468782020106</v>
+        <v>29.00700889746656</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>28.97172019488875</v>
+        <v>29.0070089333535</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>32.97738318428339</v>
+        <v>29.00700892674799</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>35.57776397597605</v>
+        <v>29.00700893298319</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>11.70802239264685</v>
+        <v>29.00700893742244</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>32.5108805921935</v>
+        <v>29.00700897572814</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>11.19399696616486</v>
+        <v>29.00700890082743</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>29.89882557184647</v>
+        <v>29.00700893654924</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>34.02064759085555</v>
+        <v>29.00700893019461</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>36.6057367236738</v>
+        <v>29.00700893641545</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>12.78155317893141</v>
+        <v>29.00700894085788</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>33.60957327264637</v>
+        <v>29.00700897899128</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>8.727253642235006</v>
+        <v>29.0070088912685</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>27.41514494278281</v>
+        <v>29.00700892622096</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>31.31959729289511</v>
+        <v>29.00700891880743</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>33.9249908909985</v>
+        <v>29.00700892496377</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>9.899548905950645</v>
+        <v>29.00700892889912</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>30.71489074360879</v>
+        <v>29.00700896617155</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>29.6173783852336</v>
+        <v>29.00700894658461</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>34.03035617277991</v>
+        <v>29.00700895561032</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>11.32078996702464</v>
+        <v>29.00700896307611</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>33.58547635063331</v>
+        <v>29.00700899988615</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>39.23242972905478</v>
+        <v>29.00700899087462</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>43.58270188736063</v>
+        <v>29.00700900058995</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>36.41991843356175</v>
+        <v>29.00700896785047</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>40.88357387037992</v>
+        <v>29.00700897722172</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>17.24799192578917</v>
+        <v>29.00700898322919</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>40.25945602122167</v>
+        <v>29.0070090217683</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>46.80669392235268</v>
+        <v>29.00700901394208</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>51.17888524029237</v>
+        <v>29.00700902397797</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>37.62803264954033</v>
+        <v>29.00700897133216</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>42.07829022692597</v>
+        <v>29.00700898068905</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>18.48581849392793</v>
+        <v>29.00700898656982</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>41.50854262335393</v>
+        <v>29.00700902495137</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>48.17691697901138</v>
+        <v>29.0070090173201</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>52.52661800947531</v>
+        <v>29.00700902732329</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>34.56163441341909</v>
+        <v>29.00700895731802</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>39.03457403970559</v>
+        <v>29.00700896657766</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>15.09070166212134</v>
+        <v>29.00700897421072</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>38.14078105285268</v>
+        <v>29.0070090117357</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>44.6139459087856</v>
+        <v>29.00700900294699</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>48.99589301448614</v>
+        <v>29.00700901286916</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>2.081832695028414</v>
+        <v>29.00700887944222</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>17.58513485119358</v>
+        <v>29.00700891082886</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>21.21572210476507</v>
+        <v>29.00700890404431</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>23.60089965376969</v>
+        <v>29.00700890954639</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>4.173963697881376</v>
+        <v>29.00700891637072</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>21.84256508002731</v>
+        <v>29.00700894984914</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>6.060307998928526</v>
+        <v>29.00700889321496</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>22.1611252010465</v>
+        <v>29.00700892599411</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>26.53197688567269</v>
+        <v>29.00700892045296</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>28.92847695953457</v>
+        <v>29.007008926174</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>9.08565813498236</v>
+        <v>29.00700893363892</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>27.4251622927861</v>
+        <v>29.00700896867374</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>6.919791716668776</v>
+        <v>29.00700889648204</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>23.0522213633786</v>
+        <v>29.00700892911284</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>27.52739331685716</v>
+        <v>29.00700892380481</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>29.91207818253577</v>
+        <v>29.00700892951523</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>10.09903994860046</v>
+        <v>29.00700893695418</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>28.46501200876653</v>
+        <v>29.00700897183269</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>4.540036232843782</v>
+        <v>29.00700888761168</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>20.63632450649867</v>
+        <v>29.00700891954436</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>24.91769308647196</v>
+        <v>29.00700891320713</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>27.31822770782721</v>
+        <v>29.00700891886182</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>7.343179600645378</v>
+        <v>29.00700892578017</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>25.68218272889694</v>
+        <v>29.00700895986815</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>24.95764309941077</v>
+        <v>29.00700894174172</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>29.34699502206577</v>
+        <v>29.00700895026387</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>9.609849621594513</v>
+        <v>29.00700895798799</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>29.50704384694672</v>
+        <v>29.00700899170937</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>34.97387558266379</v>
+        <v>29.0070089836578</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>39.24446740927603</v>
+        <v>29.00700899278725</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>31.28824535929479</v>
+        <v>29.00700896176655</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>35.7349703446697</v>
+        <v>29.00700897061847</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>15.18796779659623</v>
+        <v>29.00700897699359</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>35.76376850615321</v>
+        <v>29.00700901230609</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>42.08570910442826</v>
+        <v>29.00700900540748</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>46.3880964000744</v>
+        <v>29.0070090148439</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>32.42950572497093</v>
+        <v>29.00700896513024</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>36.86494445460935</v>
+        <v>29.00700897397267</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>16.36690947201589</v>
+        <v>29.00700898022842</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>36.95622359378224</v>
+        <v>29.00700901539873</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>43.39026905784209</v>
+        <v>29.00700900868417</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>47.67334523013417</v>
+        <v>29.00700901809337</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>29.48731174635479</v>
+        <v>29.00700895202478</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>33.94398790889836</v>
+        <v>29.00700896078488</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>13.11212528904697</v>
+        <v>29.007008968654</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>33.7141801606159</v>
+        <v>29.00700900303829</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>39.96977867401753</v>
+        <v>29.00700899521556</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>44.28086140686318</v>
+        <v>29.00700900455441</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>5.172373625067983</v>
+        <v>29.00700888639059</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>22.1978226869558</v>
+        <v>29.00700891954825</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>26.48577321918653</v>
+        <v>29.00700891289765</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>29.18417868527564</v>
+        <v>29.00700891886667</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>6.285408342489944</v>
+        <v>29.0070089243731</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>25.45262014013416</v>
+        <v>29.00700895957561</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>9.578349089864094</v>
+        <v>29.00700890129314</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>27.25133958914188</v>
+        <v>29.00700893590864</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>32.35085995458121</v>
+        <v>29.00700893061165</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>35.06150686365666</v>
+        <v>29.0070089368172</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>11.630454573896</v>
+        <v>29.00700894286011</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>31.52111367879103</v>
+        <v>29.00700897968592</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>10.5084853281896</v>
+        <v>29.00700890470298</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>28.21568912665162</v>
+        <v>29.00700893916542</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>33.42831272697327</v>
+        <v>29.00700893411428</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>36.12434948791688</v>
+        <v>29.00700894030472</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>12.72076807519053</v>
+        <v>29.00700894631872</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>32.641015878396</v>
+        <v>29.00700898298384</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>7.958579592005965</v>
+        <v>29.00700889523365</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>25.62916436047835</v>
+        <v>29.00700892897466</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>30.63460595225468</v>
+        <v>29.00700892281144</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>33.35087629224307</v>
+        <v>29.00700892893908</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>9.778876137352572</v>
+        <v>29.00700893447586</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>29.67002500220741</v>
+        <v>29.00700897032459</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>29.3107601227825</v>
+        <v>29.0070089515537</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>34.14369942082986</v>
+        <v>29.00700896068909</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>11.43013437742149</v>
+        <v>29.00700896694062</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>32.95357697223846</v>
+        <v>29.0070090023668</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>39.57184735162495</v>
+        <v>29.00700899439758</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>44.26665380339178</v>
+        <v>29.00700900415258</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>36.19970514000137</v>
+        <v>29.00700897295105</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>41.09260607652076</v>
+        <v>29.0070089824388</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>17.48155403880561</v>
+        <v>29.00700898716508</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>39.73414832262311</v>
+        <v>29.00700902424716</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>47.29603206076034</v>
+        <v>29.00700901751319</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>52.02333366689625</v>
+        <v>29.00700902759736</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>37.42892675430241</v>
+        <v>29.00700897646367</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>42.30716063899121</v>
+        <v>29.00700898593679</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>18.75399373371689</v>
+        <v>29.00700899054735</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>41.02141023195419</v>
+        <v>29.00700902748166</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>48.70438163333556</v>
+        <v>29.00700902094235</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>53.40871102241505</v>
+        <v>29.00700903099403</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>34.28917623311074</v>
+        <v>29.00700896259206</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>39.19444323266163</v>
+        <v>29.00700897197416</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>15.25588913326306</v>
+        <v>29.00700897835986</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>37.53824435105398</v>
+        <v>29.00700901448343</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>45.03111535759723</v>
+        <v>29.00700900677083</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>49.76930955275891</v>
+        <v>29.00700901674405</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>10.78727556740584</v>
+        <v>29.00700889249966</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>27.83787792113278</v>
+        <v>29.00700892499692</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>31.93330759052781</v>
+        <v>29.00700891847878</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>34.17460238714541</v>
+        <v>29.00700892407142</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>10.79197670429337</v>
+        <v>29.00700892725918</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>29.83175968770687</v>
+        <v>29.00700896180089</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>14.90008425264586</v>
+        <v>29.00700890661615</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>32.57033358773521</v>
+        <v>29.00700894052914</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>37.4336301915036</v>
+        <v>29.00700893528888</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>39.67705218153522</v>
+        <v>29.00700894109768</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>15.79758586579311</v>
+        <v>29.00700894482299</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>35.53073052583551</v>
+        <v>29.00700898094339</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>15.72492481231773</v>
+        <v>29.00700890973724</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>33.42104540215774</v>
+        <v>29.00700894349485</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>38.39166131489868</v>
+        <v>29.00700893848619</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>40.62114389459994</v>
+        <v>29.0070089442798</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>16.78884778381163</v>
+        <v>29.00700894802589</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>36.54450486376768</v>
+        <v>29.00700898398438</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>13.45259828149227</v>
+        <v>29.00700890063015</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>31.13173967676191</v>
+        <v>29.00700893368605</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>35.90324094513907</v>
+        <v>29.00700892762241</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>38.15173396398328</v>
+        <v>29.00700893335419</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>14.1100706763808</v>
+        <v>29.00700893664631</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>33.85399455744491</v>
+        <v>29.00700897181449</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>33.81443586668313</v>
+        <v>29.00700895407148</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>37.81845164745777</v>
+        <v>29.00700896258497</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>15.39672374332502</v>
+        <v>29.00700896838637</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>36.58657018067097</v>
+        <v>29.00700900312273</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>42.97397232070246</v>
+        <v>29.00700899543979</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>46.86688403147308</v>
+        <v>29.00700900456332</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>40.29374759825835</v>
+        <v>29.0070089744433</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>44.34064687507153</v>
+        <v>29.00700898327987</v>
       </c>
     </row>
     <row r="992">
@@ -25421,7 +25421,7 @@
         </is>
       </c>
       <c r="E992" t="n">
-        <v>21.04118634468906</v>
+        <v>29.00700898765849</v>
       </c>
     </row>
     <row r="993">
@@ -25446,7 +25446,7 @@
         </is>
       </c>
       <c r="E993" t="n">
-        <v>42.93071630839222</v>
+        <v>29.00700902400606</v>
       </c>
     </row>
     <row r="994">
@@ -25471,7 +25471,7 @@
         </is>
       </c>
       <c r="E994" t="n">
-        <v>50.20815264048289</v>
+        <v>29.00700901750736</v>
       </c>
     </row>
     <row r="995">
@@ -25496,7 +25496,7 @@
         </is>
       </c>
       <c r="E995" t="n">
-        <v>54.11634504765599</v>
+        <v>29.00700902693031</v>
       </c>
     </row>
     <row r="996">
@@ -25521,7 +25521,7 @@
         </is>
       </c>
       <c r="E996" t="n">
-        <v>41.41003659825918</v>
+        <v>29.00700897768745</v>
       </c>
     </row>
     <row r="997">
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="E997" t="n">
-        <v>45.44392856501182</v>
+        <v>29.00700898650891</v>
       </c>
     </row>
     <row r="998">
@@ -25571,7 +25571,7 @@
         </is>
       </c>
       <c r="E998" t="n">
-        <v>22.19685316609954</v>
+        <v>29.00700899078251</v>
       </c>
     </row>
     <row r="999">
@@ -25596,7 +25596,7 @@
         </is>
       </c>
       <c r="E999" t="n">
-        <v>44.09597063747502</v>
+        <v>29.00700902698283</v>
       </c>
     </row>
     <row r="1000">
@@ -25621,7 +25621,7 @@
         </is>
       </c>
       <c r="E1000" t="n">
-        <v>51.48592147188298</v>
+        <v>29.00700902066465</v>
       </c>
     </row>
     <row r="1001">
@@ -25646,7 +25646,7 @@
         </is>
       </c>
       <c r="E1001" t="n">
-        <v>55.37280702890489</v>
+        <v>29.00700903005495</v>
       </c>
     </row>
     <row r="1002">
@@ -25671,7 +25671,7 @@
         </is>
       </c>
       <c r="E1002" t="n">
-        <v>38.56148680648597</v>
+        <v>29.00700896435304</v>
       </c>
     </row>
     <row r="1003">
@@ -25696,7 +25696,7 @@
         </is>
       </c>
       <c r="E1003" t="n">
-        <v>42.61810972660366</v>
+        <v>29.00700897308394</v>
       </c>
     </row>
     <row r="1004">
@@ -25721,7 +25721,7 @@
         </is>
       </c>
       <c r="E1004" t="n">
-        <v>19.00863143000676</v>
+        <v>29.00700897903204</v>
       </c>
     </row>
     <row r="1005">
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="E1005" t="n">
-        <v>40.9344889710413</v>
+        <v>29.00700901444845</v>
       </c>
     </row>
     <row r="1006">
@@ -25771,7 +25771,7 @@
         </is>
       </c>
       <c r="E1006" t="n">
-        <v>48.14583994324396</v>
+        <v>29.00700900699426</v>
       </c>
     </row>
     <row r="1007">
@@ -25796,7 +25796,7 @@
         </is>
       </c>
       <c r="E1007" t="n">
-        <v>52.06355731747631</v>
+        <v>29.00700901630772</v>
       </c>
     </row>
     <row r="1008">
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="E1008" t="n">
-        <v>6.462748224794165</v>
+        <v>29.00700888481341</v>
       </c>
     </row>
     <row r="1009">
@@ -25846,7 +25846,7 @@
         </is>
       </c>
       <c r="E1009" t="n">
-        <v>24.4531838674279</v>
+        <v>29.00700891900782</v>
       </c>
     </row>
     <row r="1010">
@@ -25871,7 +25871,7 @@
         </is>
       </c>
       <c r="E1010" t="n">
-        <v>27.76588465650898</v>
+        <v>29.00700891139661</v>
       </c>
     </row>
     <row r="1011">
@@ -25896,7 +25896,7 @@
         </is>
       </c>
       <c r="E1011" t="n">
-        <v>30.34580212045257</v>
+        <v>29.00700891735026</v>
       </c>
     </row>
     <row r="1012">
@@ -25921,7 +25921,7 @@
         </is>
       </c>
       <c r="E1012" t="n">
-        <v>6.912755960908878</v>
+        <v>29.00700892104434</v>
       </c>
     </row>
     <row r="1013">
@@ -25946,7 +25946,7 @@
         </is>
       </c>
       <c r="E1013" t="n">
-        <v>26.93222092397736</v>
+        <v>29.00700895744758</v>
       </c>
     </row>
     <row r="1014">
@@ -25971,7 +25971,7 @@
         </is>
       </c>
       <c r="E1014" t="n">
-        <v>10.79963813273468</v>
+        <v>29.00700889958124</v>
       </c>
     </row>
     <row r="1015">
@@ -25996,7 +25996,7 @@
         </is>
       </c>
       <c r="E1015" t="n">
-        <v>29.45176338989249</v>
+        <v>29.00700893529271</v>
       </c>
     </row>
     <row r="1016">
@@ -26021,7 +26021,7 @@
         </is>
       </c>
       <c r="E1016" t="n">
-        <v>33.53268387777224</v>
+        <v>29.00700892895463</v>
       </c>
     </row>
     <row r="1017">
@@ -26046,7 +26046,7 @@
         </is>
       </c>
       <c r="E1017" t="n">
-        <v>36.11994873745279</v>
+        <v>29.0070089351388</v>
       </c>
     </row>
     <row r="1018">
@@ -26071,7 +26071,7 @@
         </is>
       </c>
       <c r="E1018" t="n">
-        <v>12.18952454578054</v>
+        <v>29.00700893936547</v>
       </c>
     </row>
     <row r="1019">
@@ -26096,7 +26096,7 @@
         </is>
       </c>
       <c r="E1019" t="n">
-        <v>32.94838868745418</v>
+        <v>29.00700897745375</v>
       </c>
     </row>
     <row r="1020">
@@ -26121,7 +26121,7 @@
         </is>
       </c>
       <c r="E1020" t="n">
-        <v>11.70230001338406</v>
+        <v>29.00700890293056</v>
       </c>
     </row>
     <row r="1021">
@@ -26146,7 +26146,7 @@
         </is>
       </c>
       <c r="E1021" t="n">
-        <v>30.382024997532</v>
+        <v>29.00700893847883</v>
       </c>
     </row>
     <row r="1022">
@@ -26171,7 +26171,7 @@
         </is>
       </c>
       <c r="E1022" t="n">
-        <v>34.57777853277486</v>
+        <v>29.00700893238832</v>
       </c>
     </row>
     <row r="1023">
@@ -26196,7 +26196,7 @@
         </is>
       </c>
       <c r="E1023" t="n">
-        <v>37.14989825211421</v>
+        <v>29.00700893855833</v>
       </c>
     </row>
     <row r="1024">
@@ -26221,7 +26221,7 @@
         </is>
       </c>
       <c r="E1024" t="n">
-        <v>13.26254829655753</v>
+        <v>29.00700894278341</v>
       </c>
     </row>
     <row r="1025">
@@ -26246,7 +26246,7 @@
         </is>
       </c>
       <c r="E1025" t="n">
-        <v>34.04630147605524</v>
+        <v>29.00700898070109</v>
       </c>
     </row>
     <row r="1026">
@@ -26271,7 +26271,7 @@
         </is>
       </c>
       <c r="E1026" t="n">
-        <v>9.229984096057308</v>
+        <v>29.0070088933918</v>
       </c>
     </row>
     <row r="1027">
@@ -26296,7 +26296,7 @@
         </is>
       </c>
       <c r="E1027" t="n">
-        <v>27.89304128827956</v>
+        <v>29.00700892817429</v>
       </c>
     </row>
     <row r="1028">
@@ -26321,7 +26321,7 @@
         </is>
       </c>
       <c r="E1028" t="n">
-        <v>31.87432407627004</v>
+        <v>29.0070089210233</v>
       </c>
     </row>
     <row r="1029">
@@ -26346,7 +26346,7 @@
         </is>
       </c>
       <c r="E1029" t="n">
-        <v>34.46643086349381</v>
+        <v>29.00700892713106</v>
       </c>
     </row>
     <row r="1030">
@@ -26371,7 +26371,7 @@
         </is>
       </c>
       <c r="E1030" t="n">
-        <v>10.38520939864663</v>
+        <v>29.00700893086077</v>
       </c>
     </row>
     <row r="1031">
@@ -26396,7 +26396,7 @@
         </is>
       </c>
       <c r="E1031" t="n">
-        <v>31.15673598031755</v>
+        <v>29.00700896792109</v>
       </c>
     </row>
     <row r="1032">
@@ -26421,7 +26421,7 @@
         </is>
       </c>
       <c r="E1032" t="n">
-        <v>30.12415754663055</v>
+        <v>29.00700894859045</v>
       </c>
     </row>
     <row r="1033">
@@ -26446,7 +26446,7 @@
         </is>
       </c>
       <c r="E1033" t="n">
-        <v>34.52928960058983</v>
+        <v>29.00700895757548</v>
       </c>
     </row>
     <row r="1034">
@@ -26471,7 +26471,7 @@
         </is>
       </c>
       <c r="E1034" t="n">
-        <v>11.51717730240439</v>
+        <v>29.00700896440904</v>
       </c>
     </row>
     <row r="1035">
@@ -26496,7 +26496,7 @@
         </is>
       </c>
       <c r="E1035" t="n">
-        <v>33.71488196328011</v>
+        <v>29.00700900099621</v>
       </c>
     </row>
     <row r="1036">
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="E1036" t="n">
-        <v>39.3621800151998</v>
+        <v>29.00700899219597</v>
       </c>
     </row>
     <row r="1037">
@@ -26546,7 +26546,7 @@
         </is>
       </c>
       <c r="E1037" t="n">
-        <v>43.71908395102309</v>
+        <v>29.00700900186983</v>
       </c>
     </row>
     <row r="1038">
@@ -26571,7 +26571,7 @@
         </is>
       </c>
       <c r="E1038" t="n">
-        <v>36.91984453562674</v>
+        <v>29.00700896983538</v>
       </c>
     </row>
     <row r="1039">
@@ -26596,7 +26596,7 @@
         </is>
       </c>
       <c r="E1039" t="n">
-        <v>41.37539551752256</v>
+        <v>29.00700897916314</v>
       </c>
     </row>
     <row r="1040">
@@ -26621,7 +26621,7 @@
         </is>
       </c>
       <c r="E1040" t="n">
-        <v>17.43906514243713</v>
+        <v>29.00700898452576</v>
       </c>
     </row>
     <row r="1041">
@@ -26646,7 +26646,7 @@
         </is>
       </c>
       <c r="E1041" t="n">
-        <v>40.38049252860979</v>
+        <v>29.00700902283382</v>
       </c>
     </row>
     <row r="1042">
@@ -26671,7 +26671,7 @@
         </is>
       </c>
       <c r="E1042" t="n">
-        <v>46.92381731425414</v>
+        <v>29.00700901521574</v>
       </c>
     </row>
     <row r="1043">
@@ -26696,7 +26696,7 @@
         </is>
       </c>
       <c r="E1043" t="n">
-        <v>51.30293680753441</v>
+        <v>29.00700902520807</v>
       </c>
     </row>
     <row r="1044">
@@ -26721,7 +26721,7 @@
         </is>
       </c>
       <c r="E1044" t="n">
-        <v>38.12587999330677</v>
+        <v>29.00700897329826</v>
       </c>
     </row>
     <row r="1045">
@@ -26746,7 +26746,7 @@
         </is>
       </c>
       <c r="E1045" t="n">
-        <v>42.56793200883362</v>
+        <v>29.00700898261185</v>
       </c>
     </row>
     <row r="1046">
@@ -26771,7 +26771,7 @@
         </is>
       </c>
       <c r="E1046" t="n">
-        <v>18.67782724616696</v>
+        <v>29.00700898785107</v>
       </c>
     </row>
     <row r="1047">
@@ -26796,7 +26796,7 @@
         </is>
       </c>
       <c r="E1047" t="n">
-        <v>41.63029811453863</v>
+        <v>29.00700902600308</v>
       </c>
     </row>
     <row r="1048">
@@ -26821,7 +26821,7 @@
         </is>
       </c>
       <c r="E1048" t="n">
-        <v>48.29374726765439</v>
+        <v>29.00700901857711</v>
       </c>
     </row>
     <row r="1049">
@@ -26846,7 +26846,7 @@
         </is>
       </c>
       <c r="E1049" t="n">
-        <v>52.6503478648409</v>
+        <v>29.00700902853715</v>
       </c>
     </row>
     <row r="1050">
@@ -26871,7 +26871,7 @@
         </is>
       </c>
       <c r="E1050" t="n">
-        <v>35.06732791119417</v>
+        <v>29.00700895932859</v>
       </c>
     </row>
     <row r="1051">
@@ -26896,7 +26896,7 @@
         </is>
       </c>
       <c r="E1051" t="n">
-        <v>39.53206096261804</v>
+        <v>29.00700896854762</v>
       </c>
     </row>
     <row r="1052">
@@ -26921,7 +26921,7 @@
         </is>
       </c>
       <c r="E1052" t="n">
-        <v>15.28591083040583</v>
+        <v>29.00700897553176</v>
       </c>
     </row>
     <row r="1053">
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="E1053" t="n">
-        <v>38.26621391860502</v>
+        <v>29.00700901283034</v>
       </c>
     </row>
     <row r="1054">
@@ -26971,7 +26971,7 @@
         </is>
       </c>
       <c r="E1054" t="n">
-        <v>44.73626239521155</v>
+        <v>29.00700900425244</v>
       </c>
     </row>
     <row r="1055">
@@ -26996,7 +26996,7 @@
         </is>
       </c>
       <c r="E1055" t="n">
-        <v>49.12488679245507</v>
+        <v>29.00700901413412</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_4/out_of_sample/aryl_halide/ranking_test2/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_4/out_of_sample/aryl_halide/ranking_test2/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.145</v>
+        <v>0.5659999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>28.438</v>
+        <v>16.533</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.027</v>
+        <v>0.648</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>27.002</v>
+        <v>15.813</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.021</v>
+        <v>0.913</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>27.802</v>
+        <v>8.135999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>29.00700888112335</v>
+        <v>-0.2370590725537447</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>29.00700891515447</v>
+        <v>13.63085374574031</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>29.00700890819506</v>
+        <v>14.80075854005026</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>29.0070089143068</v>
+        <v>16.05461994359563</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>29.00700892076162</v>
+        <v>7.786402010642165</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>29.00700895695976</v>
+        <v>21.82074006742067</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>29.0070088963118</v>
+        <v>-6.128258365653064</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>29.00700893184366</v>
+        <v>18.7530126855344</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>29.00700892625991</v>
+        <v>33.97752736639977</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>29.00700893261401</v>
+        <v>34.32914189617103</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>29.00700893968748</v>
+        <v>4.784282102738</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>29.00700897755968</v>
+        <v>33.35584162284084</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>29.00700889981394</v>
+        <v>-10.67168924256185</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>29.00700893518675</v>
+        <v>15.71302586918536</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>29.00700892985374</v>
+        <v>32.83132396044373</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>29.00700893619345</v>
+        <v>34.23416560094935</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>29.00700894324518</v>
+        <v>-1.10814010099455</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>29.00700898095043</v>
+        <v>28.67945050324075</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>29.0070088901004</v>
+        <v>-11.41198281926296</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>29.00700892472767</v>
+        <v>12.66414038140327</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>29.00700891825704</v>
+        <v>25.10750802627398</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>29.00700892453234</v>
+        <v>28.21826941403216</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>29.00700893107474</v>
+        <v>-0.406564554668055</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>29.00700896793651</v>
+        <v>24.04015565175905</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>29.00700894855884</v>
+        <v>21.80970847573977</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>29.00700895794764</v>
+        <v>27.66945655789407</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>29.0070089650009</v>
+        <v>1.607419008396761</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>29.00700900144157</v>
+        <v>20.43923354696002</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>29.00700899311949</v>
+        <v>27.87727959885576</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>29.00700900314545</v>
+        <v>35.31654558937566</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>29.00700897047076</v>
+        <v>46.37181030319098</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>29.00700898022241</v>
+        <v>52.02504120630174</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>29.00700898572869</v>
+        <v>5.006391674526871</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>29.00700902387813</v>
+        <v>40.61654692289358</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>29.00700901681611</v>
+        <v>63.59678664328435</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>29.00700902718008</v>
+        <v>68.59124481089509</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>29.00700897407984</v>
+        <v>41.8010535506005</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>29.00700898381823</v>
+        <v>49.40241946718801</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>29.0070089892044</v>
+        <v>0.008571839490077338</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>29.00700902720105</v>
+        <v>38.09631524114866</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>29.00700902033662</v>
+        <v>61.78137847935052</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>29.00700903066837</v>
+        <v>68.07353805303268</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>29.00700895981889</v>
+        <v>30.35186455113281</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>29.00700896946356</v>
+        <v>40.00469556158805</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>29.0070089766701</v>
+        <v>1.195052734875208</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>29.00700901382955</v>
+        <v>34.71414634567084</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>29.00700900575796</v>
+        <v>51.52865857797347</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>29.00700901600883</v>
+        <v>61.3772322594893</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>29.00700888648018</v>
+        <v>5.28159220338836</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>29.00700892072783</v>
+        <v>36.94985392133029</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>29.00700891248039</v>
+        <v>36.89352108946712</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>29.00700891833877</v>
+        <v>38.69584267313978</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>29.00700892165183</v>
+        <v>3.684585028714086</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>29.00700895812522</v>
+        <v>29.0556661063033</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>29.00700890072024</v>
+        <v>-1.059750889438288</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>29.00700893646015</v>
+        <v>41.42594086874205</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>29.00700892943988</v>
+        <v>53.82461654515598</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>29.00700893552418</v>
+        <v>54.28339252757834</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>29.00700893941238</v>
+        <v>-0.4528527851251418</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>29.00700897754721</v>
+        <v>39.07517297197342</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>29.00700890392091</v>
+        <v>-5.482123965540001</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>29.00700893949385</v>
+        <v>38.21351171390592</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>29.00700893271981</v>
+        <v>52.53085853027552</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>29.00700893878646</v>
+        <v>53.91764490078997</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>29.00700894269634</v>
+        <v>-6.512731033423631</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>29.00700898065834</v>
+        <v>33.93546320279093</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>29.00700889465892</v>
+        <v>-4.108438518890988</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>29.00700892948604</v>
+        <v>36.98378978880386</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>29.00700892168009</v>
+        <v>47.69916449320185</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>29.00700892767523</v>
+        <v>51.10641290690026</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>29.00700893108734</v>
+        <v>-6.081495454658896</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>29.0070089682146</v>
+        <v>28.74553910595404</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>29.00700894865278</v>
+        <v>32.24626071346451</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>29.00700895747367</v>
+        <v>36.9397335239849</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>29.00700896511624</v>
+        <v>-0.7266376723081152</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>29.00700900179271</v>
+        <v>30.07324157846075</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>29.00700899252636</v>
+        <v>36.23025578786957</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>29.00700900200729</v>
+        <v>43.58439893926261</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>29.00700896928153</v>
+        <v>53.71309728196105</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>29.00700897843722</v>
+        <v>57.77330965015722</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>29.0070089846749</v>
+        <v>-0.5282054550972966</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>29.00700902305011</v>
+        <v>46.72601913986814</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>29.00700901495838</v>
+        <v>66.339295754782</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>29.00700902474222</v>
+        <v>70.72726918479201</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>29.00700897260796</v>
+        <v>48.62738529715195</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>29.00700898174463</v>
+        <v>54.45643989169253</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>29.00700898785761</v>
+        <v>-6.044499073453615</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>29.00700902607471</v>
+        <v>43.34224657831715</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>29.00700901817759</v>
+        <v>63.59853594000556</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>29.00700902792344</v>
+        <v>69.09149143641778</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>29.00700895899226</v>
+        <v>37.31529873247621</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>29.00700896802428</v>
+        <v>45.29558034990093</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>29.00700897582465</v>
+        <v>-3.393986046294547</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>29.00700901320879</v>
+        <v>40.9445906824425</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>29.00700900416451</v>
+        <v>55.56862298717935</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>29.00700901382689</v>
+        <v>64.70597050933178</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>29.00700888465173</v>
+        <v>4.58955824239278</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>29.00700891890577</v>
+        <v>32.45472630726236</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>29.00700891086032</v>
+        <v>35.75757439013284</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>29.00700891668707</v>
+        <v>36.20493682088619</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>29.00700892115947</v>
+        <v>6.744304877012461</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>29.00700895771852</v>
+        <v>32.76736861020305</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>29.00700889895646</v>
+        <v>0.401137972818244</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>29.00700893470873</v>
+        <v>39.34637637284661</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>29.00700892789557</v>
+        <v>55.20845657211198</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>29.00700893394777</v>
+        <v>54.28095897406661</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>29.00700893901499</v>
+        <v>4.426295062505343</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>29.00700897724092</v>
+        <v>44.87561987184858</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>29.00700890219543</v>
+        <v>-3.613242969602389</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>29.0070089377821</v>
+        <v>36.7195465205743</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>29.00700893121217</v>
+        <v>54.53476682229534</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>29.00700893724711</v>
+        <v>54.45778301869008</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>29.00700894232381</v>
+        <v>-0.8590386225963123</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>29.00700898037726</v>
+        <v>40.69121082470237</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>29.00700889288351</v>
+        <v>-3.487836311992492</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>29.00700892772162</v>
+        <v>34.31767403649923</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>29.00700892011405</v>
+        <v>48.58320307339172</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>29.00700892607751</v>
+        <v>50.40485684613967</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>29.00700893064951</v>
+        <v>-0.8820551626235194</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>29.00700896786656</v>
+        <v>35.21607605984013</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>29.00700894850637</v>
+        <v>38.77287566487558</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>29.00700895728527</v>
+        <v>41.20511201205653</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>29.00700896491747</v>
+        <v>0.2577738640931351</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>29.0070090016822</v>
+        <v>31.73860832783991</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>29.00700899262626</v>
+        <v>41.18203026319021</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>29.00700900207186</v>
+        <v>46.14574435571397</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>29.00700896925087</v>
+        <v>62.47095397365102</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>29.0070089783623</v>
+        <v>64.19429271123154</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>29.00700898458661</v>
+        <v>2.294353281530515</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>29.00700902305473</v>
+        <v>50.48124612348494</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>29.00700901518741</v>
+        <v>73.48464382281146</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>29.00700902493569</v>
+        <v>75.45915905972602</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>29.00700897260172</v>
+        <v>58.41990242581159</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>29.00700898169373</v>
+        <v>61.80361863306287</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>29.00700898779216</v>
+        <v>-2.558859966621444</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>29.00700902610284</v>
+        <v>47.93981933832612</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>29.00700901842889</v>
+        <v>71.64832503321645</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>29.00700902813916</v>
+        <v>74.6310808441615</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>29.00700895891032</v>
+        <v>46.85447158624987</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>29.00700896789748</v>
+        <v>52.21998179794237</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>29.00700897568991</v>
+        <v>-0.6666426868287374</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>29.0070090131678</v>
+        <v>44.98014897718849</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>29.0070090043365</v>
+        <v>63.14202158511652</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>29.00700901396199</v>
+        <v>69.55652586241357</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>29.00700887886299</v>
+        <v>3.40031445224427</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>29.00700891239645</v>
+        <v>14.65292885417026</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>29.00700890541636</v>
+        <v>15.43943809596861</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>29.00700891140282</v>
+        <v>16.81231994654759</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>29.00700891749311</v>
+        <v>10.66490884656699</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>29.00700895319174</v>
+        <v>21.57452422647999</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>29.00700889375472</v>
+        <v>-2.442362577377054</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>29.00700892876461</v>
+        <v>19.52289548585095</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>29.00700892313847</v>
+        <v>33.70465159508463</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>29.00700892936299</v>
+        <v>34.30635436118835</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>29.00700893604833</v>
+        <v>7.705083891745154</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>29.00700897339293</v>
+        <v>32.73127259727841</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>29.00700889723224</v>
+        <v>-6.787875404395297</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>29.00700893208543</v>
+        <v>16.65480764517962</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>29.00700892671036</v>
+        <v>32.56438877190849</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>29.00700893291971</v>
+        <v>34.18479479910582</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>29.00700893957791</v>
+        <v>1.998274153318359</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>29.00700897675778</v>
+        <v>28.22348629834786</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>29.00700888769981</v>
+        <v>-7.283956154347944</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>29.00700892181999</v>
+        <v>13.95644346682878</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>29.00700891533027</v>
+        <v>25.39452446776863</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>29.00700892147506</v>
+        <v>28.55733308869976</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>29.00700892761409</v>
+        <v>2.498030598284092</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>29.00700896396559</v>
+        <v>23.5867014747292</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>29.00700894472207</v>
+        <v>19.63352682593357</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>29.00700895391678</v>
+        <v>25.72043463994037</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>29.0070089616555</v>
+        <v>3.651259523629509</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>29.00700899760639</v>
+        <v>19.33807317857764</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>29.00700898929056</v>
+        <v>24.49761019327354</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>29.00700899911896</v>
+        <v>32.08063158297284</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>29.00700896621657</v>
+        <v>43.34461402381871</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>29.00700897576601</v>
+        <v>49.29604823033827</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>29.00700898201501</v>
+        <v>7.578471700782767</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>29.00700901964701</v>
+        <v>39.50411714438106</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>29.00700901258552</v>
+        <v>59.70154688342028</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>29.00700902274321</v>
+        <v>64.97278385249388</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>29.00700896980116</v>
+        <v>38.89818481624324</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>29.0070089793361</v>
+        <v>46.70717107918966</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>29.00700898546626</v>
+        <v>2.798636607403132</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>29.00700902294691</v>
+        <v>37.11859561091696</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>29.0070090160862</v>
+        <v>57.96385683839883</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>29.00700902621078</v>
+        <v>64.46621686205495</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>29.00700895578446</v>
+        <v>27.60988356668097</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>29.00700896522626</v>
+        <v>37.28068215439006</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>29.00700897314205</v>
+        <v>3.342317158312039</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>29.00700900979909</v>
+        <v>33.29286138543516</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>29.00700900174532</v>
+        <v>47.47096809834342</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>29.00700901179119</v>
+        <v>57.3105682645606</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>29.00700888781256</v>
+        <v>8.264466262744229</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>29.00700892181419</v>
+        <v>34.20701544496004</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>29.00700891479308</v>
+        <v>36.6783592352125</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>29.00700892084417</v>
+        <v>37.25474719164408</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>29.00700892705264</v>
+        <v>12.77674231749201</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>29.00700896318692</v>
+        <v>36.28229818992485</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>29.00700890290839</v>
+        <v>4.499521380966264</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>29.00700893839965</v>
+        <v>41.7057105513074</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>29.00700893274049</v>
+        <v>58.25554092511632</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>29.00700893902595</v>
+        <v>57.78614560268218</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>29.00700894577665</v>
+        <v>10.42926537918785</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>29.00700898356717</v>
+        <v>48.52580484355931</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>29.00700890632024</v>
+        <v>1.351737793140767</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>29.00700894165231</v>
+        <v>40.10978356135053</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>29.00700893624689</v>
+        <v>58.65607406287135</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>29.00700894251548</v>
+        <v>59.1361575523877</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>29.00700894923155</v>
+        <v>5.633231150482612</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>29.00700898685555</v>
+        <v>45.04219956000374</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>29.00700889675257</v>
+        <v>1.785694509708467</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>29.00700893134828</v>
+        <v>38.28618042606324</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>29.00700892482529</v>
+        <v>52.00055803071956</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>29.00700893103065</v>
+        <v>54.18683691295806</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>29.00700893725528</v>
+        <v>7.415850129587445</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>29.00700897405006</v>
+        <v>41.71433292541603</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>29.00700895495087</v>
+        <v>41.78201984465797</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>29.00700896417715</v>
+        <v>45.10322675733634</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>29.00700896984079</v>
+        <v>1.819476971103626</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>29.00700900617411</v>
+        <v>28.88602007303353</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>29.00700899799179</v>
+        <v>39.02883747158124</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>29.00700900787402</v>
+        <v>44.93544535421114</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>29.00700897663678</v>
+        <v>67.28435766649766</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>29.00700898621135</v>
+        <v>70.10025292602076</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>29.00700899028126</v>
+        <v>4.177849636043053</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>29.00700902830456</v>
+        <v>47.93980869167148</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>29.00700902137839</v>
+        <v>73.68345624393447</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>29.00700903158425</v>
+        <v>76.86259854630686</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>29.00700898014362</v>
+        <v>64.02499017801914</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>29.00700899365554</v>
+        <v>-0.07880016128036615</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>29.00700903152524</v>
+        <v>46.16891174965389</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>29.00700902479822</v>
+        <v>72.74888324224833</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>29.00700903496882</v>
+        <v>77.04742263519243</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>29.00700896610655</v>
+        <v>53.55008937881277</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>29.00700897557225</v>
+        <v>60.1900137595499</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>29.00700898135676</v>
+        <v>3.340787077854383</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>29.00700901840104</v>
+        <v>45.23800461454641</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>29.00700901048193</v>
+        <v>64.82338631686379</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>29.00700902057539</v>
+        <v>72.65671892662515</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>29.0070088971591</v>
+        <v>1.885391844860401</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>29.00700892879087</v>
+        <v>37.9397525774606</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>29.00700892164071</v>
+        <v>39.18316828221533</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>29.00700892693411</v>
+        <v>38.53506430649239</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>29.00700893227604</v>
+        <v>5.885290760365805</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>29.00700896600258</v>
+        <v>39.88847015242668</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>29.0070089104757</v>
+        <v>-3.462650002395851</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>29.00700894347363</v>
+        <v>42.67320200837623</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>29.00700893750644</v>
+        <v>56.42457858649834</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>29.00700894299808</v>
+        <v>54.3663070015843</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>29.00700894878186</v>
+        <v>2.534417789367044</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>29.00700898402915</v>
+        <v>49.8188372785624</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>29.00700891340215</v>
+        <v>-6.784628448328416</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>29.00700894624673</v>
+        <v>40.66442245977689</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>29.00700894051077</v>
+        <v>56.4031103674898</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>29.0070089459841</v>
+        <v>55.07013176025869</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>29.0070089517401</v>
+        <v>-2.286979735201978</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>29.00700898682795</v>
+        <v>46.11424195483811</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>29.00700890486615</v>
+        <v>-4.044691244254356</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>29.00700893703477</v>
+        <v>41.57926316594765</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>29.00700893032548</v>
+        <v>53.14953009010112</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>29.00700893573906</v>
+        <v>53.6493078024224</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>29.00700894107196</v>
+        <v>-0.6332630287886793</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>29.00700897540267</v>
+        <v>43.1772307758875</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>29.00700895786874</v>
+        <v>44.34545965564585</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>29.00700896591367</v>
+        <v>45.97757031876017</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>29.00700897065742</v>
+        <v>-0.9251669354912195</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>29.00700900451994</v>
+        <v>35.09208568773916</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>29.00700899648255</v>
+        <v>41.76079086514984</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>29.00700900514101</v>
+        <v>46.44837362176767</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>29.00700897704857</v>
+        <v>65.79490887394395</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>29.00700898538863</v>
+        <v>66.58739762672748</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>29.00700898872874</v>
+        <v>-0.5708539639533114</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>29.00700901722985</v>
+        <v>70.66976666263255</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>29.00700902615611</v>
+        <v>72.4090195018518</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>29.00700898004406</v>
+        <v>62.27432046216556</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>29.00700898836407</v>
+        <v>64.52128424037586</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>29.00700899161109</v>
+        <v>-4.797265779912298</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>29.00700902688084</v>
+        <v>48.62954677472399</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>29.00700902014463</v>
+        <v>69.38487591370557</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>29.00700902903412</v>
+        <v>71.94937355195587</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>29.00700896752052</v>
+        <v>52.89802726381209</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>29.00700897575245</v>
+        <v>57.08051151930367</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>29.00700898062105</v>
+        <v>-0.6821616379068161</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>29.00700901513532</v>
+        <v>48.83910506660396</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>29.00700900732485</v>
+        <v>63.60577302726274</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>29.00700901614467</v>
+        <v>69.44021816449863</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>29.00700888033727</v>
+        <v>-1.154978655489217</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>29.00700891154758</v>
+        <v>9.654236731924428</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>29.00700890487288</v>
+        <v>13.07078171493781</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>29.00700891021149</v>
+        <v>13.69493717346984</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>29.00700891677866</v>
+        <v>6.595438926249216</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>29.00700895016893</v>
+        <v>21.76764000450158</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>29.00700889369329</v>
+        <v>-8.342282663454039</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>29.00700892627574</v>
+        <v>12.28657103116863</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>29.00700892080022</v>
+        <v>27.81767833448346</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>29.00700892635734</v>
+        <v>27.38190889297835</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>29.00700893359783</v>
+        <v>3.939692582495329</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>29.00700896852515</v>
+        <v>32.36914748804443</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>29.00700889681195</v>
+        <v>-13.46952797737333</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>29.00700892924349</v>
+        <v>8.398595219440642</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>29.00700892398699</v>
+        <v>25.73446389734615</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>29.00700892953273</v>
+        <v>26.17602470400449</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>29.00700893677199</v>
+        <v>-1.684731186409348</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>29.00700897154083</v>
+        <v>27.67985912970625</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>29.00700888804568</v>
+        <v>-13.11841248186918</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>29.00700891979168</v>
+        <v>6.657468922800408</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>29.00700891352365</v>
+        <v>20.26629762854907</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>29.00700891900166</v>
+        <v>22.3897078251993</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>29.00700892573367</v>
+        <v>-1.118923438701355</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>29.00700895972791</v>
+        <v>23.22457936493152</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>29.00700894218685</v>
+        <v>22.5712322341381</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>29.00700895043589</v>
+        <v>27.79541748225215</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>29.00700895835862</v>
+        <v>1.458902884534353</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>29.00700899197687</v>
+        <v>22.1227180365481</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>29.00700898412394</v>
+        <v>29.32880577883587</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>29.00700899296884</v>
+        <v>35.30538039633229</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>29.00700896171122</v>
+        <v>43.90936780706767</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>29.00700897028624</v>
+        <v>48.8996756846621</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>29.00700897692305</v>
+        <v>5.655635100548309</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>29.00700901211207</v>
+        <v>41.74584024153636</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>29.00700900538793</v>
+        <v>61.83773728523386</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>29.00700901453436</v>
+        <v>65.47415812394381</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>29.00700896492033</v>
+        <v>39.31599516563016</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>29.00700897348377</v>
+        <v>46.02325672591154</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>29.00700898001672</v>
+        <v>1.312350479142221</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>29.0070090150629</v>
+        <v>39.56627773382945</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>29.00700900850977</v>
+        <v>60.27633979418518</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>29.00700901762729</v>
+        <v>65.02199154034538</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>29.00700895197936</v>
+        <v>29.37272840373879</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>29.00700896044482</v>
+        <v>37.81302183854974</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>29.00700896858593</v>
+        <v>2.253815900127137</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>29.00700900286536</v>
+        <v>36.21053915864589</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>29.00700899520976</v>
+        <v>51.53341932156526</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>29.00700900424303</v>
+        <v>59.37143741564054</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>29.00700887997114</v>
+        <v>-5.092820332466566</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>29.00700891377312</v>
+        <v>5.229508941434428</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>29.0070089065074</v>
+        <v>6.170817568817892</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>29.00700891247789</v>
+        <v>8.713974010398083</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>29.0070089182906</v>
+        <v>-3.8453337544052</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>29.007008954244</v>
+        <v>4.634687461223205</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>29.00700889470064</v>
+        <v>-12.73956492552095</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>29.00700892998436</v>
+        <v>8.227728357948465</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>29.00700892405405</v>
+        <v>22.43478542483939</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>29.00700893025904</v>
+        <v>24.1201660895227</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>29.00700893662474</v>
+        <v>-10.50023246015497</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>29.00700897422698</v>
+        <v>11.96615460332671</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>29.00700889813437</v>
+        <v>-17.15376910997379</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>29.00700893325841</v>
+        <v>5.306419700021852</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>29.00700892757775</v>
+        <v>21.2838166064139</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>29.00700893376766</v>
+        <v>23.96470691883901</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>29.00700894010964</v>
+        <v>-16.34839677261367</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>29.00700897754461</v>
+        <v>7.337665264332871</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>29.00700888870719</v>
+        <v>-17.11053590875286</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>29.00700892309556</v>
+        <v>3.235625686406699</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>29.00700891630747</v>
+        <v>14.7892005931083</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>29.00700892243368</v>
+        <v>19.09256881244343</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>29.00700892827874</v>
+        <v>-14.34630659297151</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>29.00700896488515</v>
+        <v>4.319656169012518</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>29.00700894572517</v>
+        <v>7.480283816019609</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>29.00700895486693</v>
+        <v>13.20190882705847</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>29.0070089620605</v>
+        <v>-8.120564306122159</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>29.00700899823248</v>
+        <v>4.758062297155277</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>29.00700898981453</v>
+        <v>11.97243541662383</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>29.00700899964055</v>
+        <v>21.40240719083682</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>29.00700896699427</v>
+        <v>27.26729920766766</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>29.00700897648669</v>
+        <v>32.76477284881748</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>29.00700898218106</v>
+        <v>-8.996522193780258</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>29.00700902003699</v>
+        <v>20.05638213090293</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>29.0070090128562</v>
+        <v>41.87904087557946</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>29.00700902300926</v>
+        <v>48.93758497433203</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>29.00700897052813</v>
+        <v>22.69108346322176</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>29.00700898000545</v>
+        <v>30.02005469885713</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>29.00700898558553</v>
+        <v>-14.11974759777892</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>29.00700902328732</v>
+        <v>17.35248918016375</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>29.0070090163023</v>
+        <v>39.76991075775057</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>29.0070090264224</v>
+        <v>48.03303039494115</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>29.00700895664106</v>
+        <v>12.98120079945101</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>29.00700896602342</v>
+        <v>22.19876805526585</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>29.00700897340135</v>
+        <v>-11.01406226307664</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>29.00700901027786</v>
+        <v>16.15426558930288</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>29.00700900210106</v>
+        <v>32.03523339612552</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>29.00700901214294</v>
+        <v>43.68103504531874</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>29.00700890097578</v>
+        <v>4.068465818937245</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>29.00700893394878</v>
+        <v>39.23106113219237</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>29.00700892704716</v>
+        <v>43.79622512111906</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>29.007008932652</v>
+        <v>44.26181745483704</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>29.00700893422885</v>
+        <v>-0.9834201039442014</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>29.00700896929404</v>
+        <v>27.86070135102015</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>29.00700891506024</v>
+        <v>-0.6912588010181402</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>29.0070089494631</v>
+        <v>45.17953554345881</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>29.00700894378247</v>
+        <v>62.75318480050791</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>29.00700894960111</v>
+        <v>61.72713906310365</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>29.00700895164791</v>
+        <v>-3.818400419716109</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>29.00700898830393</v>
+        <v>38.94268987416161</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>29.00700891804287</v>
+        <v>-4.835648226974037</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>29.00700895228684</v>
+        <v>42.50780648588554</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>29.00700894683095</v>
+        <v>62.22040213161333</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>29.00700895263176</v>
+        <v>61.96137372377265</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>29.00700895472103</v>
+        <v>-8.899394942977938</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>29.00700899121212</v>
+        <v>35.10349011296722</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>29.00700890894139</v>
+        <v>-5.226757159246397</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>29.00700894247784</v>
+        <v>39.92106437039044</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>29.0070089360056</v>
+        <v>55.78051903415043</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>29.00700894173882</v>
+        <v>57.44667857134662</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>29.00700894341403</v>
+        <v>-9.009630056101525</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>29.00700897911323</v>
+        <v>30.02028277817917</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>29.00700896123536</v>
+        <v>33.14807613352353</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>29.00700896965495</v>
+        <v>35.61105190602738</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>29.00700897459397</v>
+        <v>-3.335644470473778</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>29.00700900981672</v>
+        <v>29.48961944790212</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>29.00700900178944</v>
+        <v>38.821013441189</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>29.00700901084321</v>
+        <v>43.99157000065034</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>29.0070089814494</v>
+        <v>56.10641783490809</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>29.00700899018394</v>
+        <v>57.72879044241139</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>29.0070089936369</v>
+        <v>-2.498766524385189</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>29.00700903048374</v>
+        <v>46.44403970827227</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>29.00700902361753</v>
+        <v>69.38237585894791</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>29.0070090329558</v>
+        <v>71.47853433581209</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>29.00700898455515</v>
+        <v>52.57053352310803</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>29.00700899327096</v>
+        <v>55.75344268885721</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>29.0070089966169</v>
+        <v>-6.890296245231621</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>29.00700903331374</v>
+        <v>44.49267980989034</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>29.00700902662467</v>
+        <v>68.27728070076468</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>29.00700903592559</v>
+        <v>71.2683883801661</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>29.00700897130236</v>
+        <v>41.16124426306513</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>29.00700897992178</v>
+        <v>46.40310316684585</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>29.00700898497406</v>
+        <v>-4.110171023458715</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>29.0070090208832</v>
+        <v>42.91007463197819</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>29.00700901307226</v>
+        <v>61.03185285691673</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>29.0070090222959</v>
+        <v>67.46878046466608</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>29.00700887306929</v>
+        <v>-0.3497362434994322</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>29.00700890381398</v>
+        <v>6.264484091314904</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>29.00700889631526</v>
+        <v>5.927607858128413</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>29.00700890165102</v>
+        <v>7.983113272271721</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>29.00700890801435</v>
+        <v>3.557086135602152</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>29.00700894089508</v>
+        <v>11.12028990466183</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>29.00700888602261</v>
+        <v>-5.68862519261867</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>29.00700891813196</v>
+        <v>10.85365225371566</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>29.00700891176927</v>
+        <v>21.38427699257764</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>29.0070089173262</v>
+        <v>22.64643600193291</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>29.00700892439955</v>
+        <v>2.404908393498562</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>29.00700895880711</v>
+        <v>23.13518205920015</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>29.00700888916553</v>
+        <v>-10.63441637917383</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>29.00700892112404</v>
+        <v>6.869567038286425</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>29.0070089149864</v>
+        <v>18.92602242320587</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>29.00700892053483</v>
+        <v>21.25639350228141</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>29.00700892759615</v>
+        <v>-4.083384645514524</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>29.00700896184497</v>
+        <v>17.27307380135949</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>29.00700888059432</v>
+        <v>-11.56028772142129</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>29.00700891185996</v>
+        <v>3.134771445264835</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>29.0070089047524</v>
+        <v>12.17655270395893</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>29.00700891023483</v>
+        <v>16.22301472242688</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>29.00700891672513</v>
+        <v>-6.869010120702203</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>29.00700895019155</v>
+        <v>8.75896983629506</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>29.00700893211121</v>
+        <v>9.47712952455864</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>29.00700894032008</v>
+        <v>16.12121390948575</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>29.00700894973042</v>
+        <v>1.528666048947283</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>29.0070089828308</v>
+        <v>13.29429995594926</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>29.0070089742748</v>
+        <v>16.58589702456706</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>29.00700898310387</v>
+        <v>25.48830471289507</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>29.00700895112818</v>
+        <v>31.233566301604</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>29.00700895966872</v>
+        <v>37.96459935566786</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>29.00700896790492</v>
+        <v>7.159633223375472</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>29.00700900256548</v>
+        <v>34.20875106489482</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>29.00700899507633</v>
+        <v>49.4021105312907</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>29.00700900421587</v>
+        <v>56.37275671338071</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>29.00700895436296</v>
+        <v>25.21587953314917</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>29.00700896289596</v>
+        <v>33.89121287913151</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>29.00700897102366</v>
+        <v>1.695415620525861</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>29.00700900553998</v>
+        <v>30.54562381173184</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>29.00700899822522</v>
+        <v>46.06076186820512</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>29.00700900734059</v>
+        <v>54.42491346307247</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>29.00700894162332</v>
+        <v>11.69951285678827</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>29.00700895005724</v>
+        <v>22.13023450799173</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>29.00700895972161</v>
+        <v>-1.005126590453155</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>29.00700899346189</v>
+        <v>22.76061369770203</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>29.00700898508398</v>
+        <v>33.21733281957327</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>29.00700899411378</v>
+        <v>44.73537911041707</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>29.00700888065805</v>
+        <v>-15.42668482607072</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>29.0070089132859</v>
+        <v>5.709985580838605</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>29.00700890516279</v>
+        <v>6.296823947385194</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>29.00700891065709</v>
+        <v>6.347975014344597</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>29.00700891811968</v>
+        <v>3.688515233973757</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>29.00700895302958</v>
+        <v>26.63501518288425</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>29.00700889405918</v>
+        <v>-21.24391084840184</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>29.00700892811131</v>
+        <v>10.25420859342344</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>29.00700892116281</v>
+        <v>22.53877560403361</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>29.0070089268682</v>
+        <v>21.36110675089463</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>29.00700893495267</v>
+        <v>0.1059378398095738</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>29.00700897144993</v>
+        <v>36.71920079776653</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>29.00700889721243</v>
+        <v>-24.63445329100157</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>29.00700893110632</v>
+        <v>8.127547720977216</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>29.00700892439967</v>
+        <v>22.16012154949428</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>29.00700893008797</v>
+        <v>21.81645075673885</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>29.00700893813698</v>
+        <v>-4.817320034816188</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>29.00700897446939</v>
+        <v>32.78921353544487</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>29.00700888850987</v>
+        <v>-22.11038123880288</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>29.00700892169201</v>
+        <v>8.373264297957197</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>29.00700891400007</v>
+        <v>18.97653492891244</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>29.00700891962218</v>
+        <v>20.38245927707749</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>29.00700892714318</v>
+        <v>-3.227783827111409</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>29.00700896267895</v>
+        <v>29.2163276637818</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>29.00700894391879</v>
+        <v>31.35370360615033</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>29.00700895227468</v>
+        <v>33.47752162466891</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>29.00700896016296</v>
+        <v>0.5185735535655631</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>29.00700899527787</v>
+        <v>28.93118589197318</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>29.00700898634412</v>
+        <v>35.81777507190696</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>29.0070089953451</v>
+        <v>40.68852259515952</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>29.00700896349957</v>
+        <v>52.33682817990999</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>29.00700897216857</v>
+        <v>53.81654150422926</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>29.00700897875707</v>
+        <v>1.696280407606807</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>29.0070090154955</v>
+        <v>45.9061531650235</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>29.00700900769816</v>
+        <v>65.7684857348366</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>29.00700901698498</v>
+        <v>67.81190618259981</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>29.00700896672832</v>
+        <v>48.43615753623502</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>29.0070089753771</v>
+        <v>51.49880653432339</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>29.00700898184863</v>
+        <v>-2.872269129942516</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>29.00700901843575</v>
+        <v>43.45673077993399</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>29.00700901082921</v>
+        <v>63.92684202370143</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>29.0070090200788</v>
+        <v>66.93406357902336</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>29.00700895381884</v>
+        <v>39.06289220849243</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>29.00700896236898</v>
+        <v>43.95440131037685</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>29.00700897043069</v>
+        <v>0.1329016138885919</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>29.00700900622259</v>
+        <v>41.90597450266067</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>29.00700899751442</v>
+        <v>56.94803912219081</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>29.00700900668478</v>
+        <v>63.18795749216652</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>29.00700887178328</v>
+        <v>3.313392832172799</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>29.00700890385978</v>
+        <v>12.83057828176875</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>29.00700889583484</v>
+        <v>13.32212943468061</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>29.00700890127102</v>
+        <v>14.55399444308273</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>29.00700890610818</v>
+        <v>0.6339534682303487</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>29.00700894035133</v>
+        <v>7.424191621751222</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>29.00700888502969</v>
+        <v>-4.056548560349142</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>29.00700891850881</v>
+        <v>15.08572722739771</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>29.00700891166549</v>
+        <v>26.81117903468637</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>29.00700891732604</v>
+        <v>27.21193253330193</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>29.00700892275349</v>
+        <v>-4.81927076571996</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>29.00700895856008</v>
+        <v>14.73569118213896</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>29.00700888824036</v>
+        <v>-8.696830883284864</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>29.00700892156279</v>
+        <v>11.58754467686923</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>29.00700891495814</v>
+        <v>24.91198378730449</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>29.00700892060544</v>
+        <v>26.25024460040388</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>29.0070089260303</v>
+        <v>-10.77021116380991</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>29.00700896167415</v>
+        <v>9.61712892571936</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>29.00700887947414</v>
+        <v>-9.005602654771049</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>29.00700891209198</v>
+        <v>9.192498574620396</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>29.00700890449076</v>
+        <v>19.26331291072539</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>29.00700891006353</v>
+        <v>22.17055382947444</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>29.00700891499901</v>
+        <v>-10.28461531477692</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>29.00700894985511</v>
+        <v>5.201889201104724</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>29.00700893100286</v>
+        <v>7.455189982997377</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>29.00700893932349</v>
+        <v>12.2816583582513</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>29.00700895035336</v>
+        <v>0.8377856716413206</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>29.00700898489539</v>
+        <v>14.9388963149348</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>29.00700897592248</v>
+        <v>19.01658495453918</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>29.00700898483672</v>
+        <v>25.16226690434922</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>29.00700895037116</v>
+        <v>25.00746874833239</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>29.00700895902395</v>
+        <v>29.75480451693564</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>29.00700896887551</v>
+        <v>1.903038360718639</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>29.0070090050194</v>
+        <v>30.97377025251706</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>29.00700899719555</v>
+        <v>47.56633659932662</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>29.0070090064103</v>
+        <v>51.42847169771311</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>29.00700895369738</v>
+        <v>19.79455472402478</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>29.00700896233463</v>
+        <v>26.2536155601889</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>29.007008972052</v>
+        <v>-3.36625476782152</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>29.00700900804757</v>
+        <v>27.73818801601912</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>29.00700900041682</v>
+        <v>44.82836882303077</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>29.00700900959811</v>
+        <v>49.7834298789915</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>29.00700894075739</v>
+        <v>9.935884039572274</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>29.00700894928336</v>
+        <v>17.96055658803544</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>29.00700896054746</v>
+        <v>-2.716405900625151</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>29.00700899575845</v>
+        <v>24.12342776879714</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>29.00700898701464</v>
+        <v>35.96053650878991</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>29.00700899610619</v>
+        <v>43.88930831946956</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>29.00700886729361</v>
+        <v>0.7449580625399399</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>29.0070088978122</v>
+        <v>3.156395510598323</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>29.00700888981137</v>
+        <v>1.134662238798715</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>29.00700889491529</v>
+        <v>1.570619836651577</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>29.00700890084774</v>
+        <v>-0.3192603620945782</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>29.00700893348924</v>
+        <v>0.9663293856335784</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>29.00700887965329</v>
+        <v>-8.581916607774552</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>29.00700891150674</v>
+        <v>2.674948314971655</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>29.0070089046234</v>
+        <v>10.87118623550873</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>29.00700890993512</v>
+        <v>10.56220869195132</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>29.00700891647744</v>
+        <v>-8.732118703466956</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>29.00700895060846</v>
+        <v>4.439830071479737</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>29.00700888278477</v>
+        <v>-13.26921277893254</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>29.00700891448909</v>
+        <v>-0.9605143904608937</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>29.00700890783817</v>
+        <v>8.607237968332232</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>29.00700891313684</v>
+        <v>9.204241756832008</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>29.00700891966189</v>
+        <v>-14.88593609905042</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>29.00700895363742</v>
+        <v>-0.9708480178207175</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>29.00700887460655</v>
+        <v>-11.3178339359176</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>29.00700890564091</v>
+        <v>-0.8020819669633106</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>29.00700889804453</v>
+        <v>6.067913039883607</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>29.00700890327596</v>
+        <v>8.080040841104104</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>29.00700890929227</v>
+        <v>-11.91393738944221</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>29.00700894251695</v>
+        <v>-2.515495233651659</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>29.00700892426316</v>
+        <v>0.5243684262144583</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>29.00700893212216</v>
+        <v>3.378042130357564</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>29.00700894370543</v>
+        <v>2.195891253643747</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>29.00700897661923</v>
+        <v>10.54908451953092</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>29.00700896779389</v>
+        <v>13.7021681344419</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>29.00700897626371</v>
+        <v>18.23039798740268</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>29.00700894248219</v>
+        <v>13.53797141614378</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>29.0070089506507</v>
+        <v>16.26380842105079</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>29.00700896118856</v>
+        <v>0.738161044867681</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>29.00700899562832</v>
+        <v>23.0324707214446</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>29.00700898790486</v>
+        <v>38.01247683395312</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>29.00700899665687</v>
+        <v>40.33935594746507</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>29.00700894571711</v>
+        <v>7.934910149688656</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>29.00700895387044</v>
+        <v>12.30409459813159</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>29.00700896427971</v>
+        <v>-4.810348171231798</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>29.00700899857731</v>
+        <v>19.34669293333086</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>29.00700899104297</v>
+        <v>34.70643745124939</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>29.00700899976267</v>
+        <v>38.09120265325041</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>29.00700893352849</v>
+        <v>1.450080278826228</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>29.00700894158128</v>
+        <v>7.293006943896604</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>29.00700895341084</v>
+        <v>-2.347338111198692</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>29.00700898696013</v>
+        <v>17.9136635336294</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>29.00700897835506</v>
+        <v>28.40758030952107</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>29.00700898699312</v>
+        <v>34.63473633567657</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>29.00700888033376</v>
+        <v>12.18085582517206</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>29.00700891438575</v>
+        <v>26.15739630165637</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>29.00700890717263</v>
+        <v>25.28520713847462</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>29.00700891327362</v>
+        <v>27.31810518986525</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>29.00700891798799</v>
+        <v>4.930085353898523</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>29.0070089541791</v>
+        <v>15.74306694442136</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>29.00700889553369</v>
+        <v>9.355983502648407</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>29.00700893108641</v>
+        <v>34.30051966521464</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>29.00700892524849</v>
+        <v>47.74962763904657</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>29.00700893159077</v>
+        <v>48.82397402854599</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>29.00700893683558</v>
+        <v>3.208477772881135</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>29.0070089746966</v>
+        <v>28.32863900389744</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>29.00700889903819</v>
+        <v>5.565343703111342</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>29.0070089344308</v>
+        <v>31.98810891148698</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>29.00700892884834</v>
+        <v>47.42498446919403</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>29.0070089351765</v>
+        <v>49.52611210444548</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>29.0070089404118</v>
+        <v>-1.871761648002785</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>29.00700897810554</v>
+        <v>24.47226568359276</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>29.00700888925609</v>
+        <v>0.7450066896905518</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>29.00700892390098</v>
+        <v>24.82564488496723</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>29.00700891718149</v>
+        <v>35.14460002915641</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>29.00700892344679</v>
+        <v>39.02899315592524</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>29.00700892823226</v>
+        <v>-3.696745357828263</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>29.00700896508558</v>
+        <v>17.45871859540704</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>29.00700894553109</v>
+        <v>13.45609087783603</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>29.0070089548315</v>
+        <v>17.83810197329282</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>29.00700896294081</v>
+        <v>3.511621971609241</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>29.00700899939254</v>
+        <v>19.93591529412922</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>29.00700899086947</v>
+        <v>24.28910999600724</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>29.00700900081724</v>
+        <v>30.56301511005586</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>29.00700896737506</v>
+        <v>39.33451977045212</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>29.00700897703393</v>
+        <v>43.39961685230884</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>29.00700898362073</v>
+        <v>8.633531869660512</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>29.00700902177847</v>
+        <v>41.65802026836599</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>29.00700901453443</v>
+        <v>61.79927850079719</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>29.00700902481458</v>
+        <v>65.51311850957116</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>29.00700897100906</v>
+        <v>35.72017133408867</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>29.00700898065446</v>
+        <v>41.67787849979115</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>29.00700898710764</v>
+        <v>4.416181927660585</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>29.00700902511227</v>
+        <v>39.91512596505665</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>29.00700901807259</v>
+        <v>60.89671958974593</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>29.00700902832011</v>
+        <v>65.85259831548437</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>29.00700895673136</v>
+        <v>21.41809493237766</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>29.00700896628406</v>
+        <v>29.47339187530821</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>29.00700897454987</v>
+        <v>2.670362748727733</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>29.00700901171968</v>
+        <v>33.6888684185633</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>29.00700900345929</v>
+        <v>47.35993977703106</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>29.00700901362844</v>
+        <v>55.90348405869021</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>29.0070088822155</v>
+        <v>10.6796418479585</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>29.00700891451089</v>
+        <v>35.80551493734648</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>29.00700890660908</v>
+        <v>37.53946089771649</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>29.00700891218307</v>
+        <v>39.5220712932115</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>29.00700891599075</v>
+        <v>4.100898818325714</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>29.00700895042278</v>
+        <v>24.25643737603422</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>29.00700889561314</v>
+        <v>5.135316813691226</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>29.00700892932436</v>
+        <v>40.54712684479738</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>29.00700892257886</v>
+        <v>53.98947740558872</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>29.00700892837355</v>
+        <v>54.86595057596261</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>29.00700893280069</v>
+        <v>0.834560144236125</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>29.00700896881054</v>
+        <v>34.50085082420222</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>29.00700889871952</v>
+        <v>0.7798088154002052</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>29.00700893227295</v>
+        <v>37.27360315172486</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>29.00700892576213</v>
+        <v>52.35530226344129</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>29.00700893154255</v>
+        <v>54.20755009734184</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>29.00700893598849</v>
+        <v>-5.14974729248247</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>29.00700897183471</v>
+        <v>29.28724828844069</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>29.00700888995618</v>
+        <v>1.70408588024689</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>29.00700892279843</v>
+        <v>35.62404314360217</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>29.00700891530744</v>
+        <v>47.19521774869738</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>29.00700892101882</v>
+        <v>50.89096694721196</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>29.00700892494876</v>
+        <v>-5.209508228165571</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>29.00700895999727</v>
+        <v>23.69925154430433</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>29.00700894128395</v>
+        <v>26.84660432602227</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>29.00700894970532</v>
+        <v>31.44276487216904</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>29.00700895814913</v>
+        <v>-1.423825289653333</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>29.00700899279485</v>
+        <v>23.87758048914406</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>29.00700898390117</v>
+        <v>30.50803704417044</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>29.00700899295582</v>
+        <v>37.72005488551942</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>29.00700896080496</v>
+        <v>47.81693231115878</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>29.00700896955307</v>
+        <v>51.96041240958199</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>29.00700897673122</v>
+        <v>0.1077143221169088</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>29.00700901299042</v>
+        <v>41.12044559066487</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>29.00700900519849</v>
+        <v>60.53457279605882</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>29.00700901455247</v>
+        <v>65.12488240842606</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>29.00700896403397</v>
+        <v>42.49787238525953</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>29.00700897276707</v>
+        <v>48.44395049079387</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>29.00700897982422</v>
+        <v>-5.392151205102255</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>29.00700901593353</v>
+        <v>37.54345126116949</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>29.00700900832567</v>
+        <v>57.40490477343376</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>29.00700901764703</v>
+        <v>63.19061931408552</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>29.00700895108526</v>
+        <v>31.07170986085617</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>29.00700895971799</v>
+        <v>39.0511368916889</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>29.0070089683508</v>
+        <v>-3.97654643087726</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>29.00700900366486</v>
+        <v>33.98086033140324</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>29.00700899496988</v>
+        <v>48.33728555985195</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>29.00700900420869</v>
+        <v>57.5605550833085</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>29.00700889016454</v>
+        <v>4.886425157274761</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>29.00700892538077</v>
+        <v>31.41713340259949</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>29.00700891824074</v>
+        <v>32.76631515539825</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>29.00700892450695</v>
+        <v>33.76856697865032</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>29.00700892865793</v>
+        <v>3.821516409978823</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>29.00700896603749</v>
+        <v>26.12028119827926</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>29.00700890578284</v>
+        <v>-0.2251622107715328</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>29.00700894254095</v>
+        <v>37.76157418679728</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>29.00700893679731</v>
+        <v>53.7172604436539</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>29.00700894330463</v>
+        <v>53.53257037945669</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>29.00700894798685</v>
+        <v>0.365790990892588</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>29.00700898708225</v>
+        <v>37.60935865139488</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>29.00700890923791</v>
+        <v>-4.213654064847638</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>29.00700894583091</v>
+        <v>35.36922619795418</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>29.00700894034245</v>
+        <v>53.43053076117462</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>29.00700894683214</v>
+        <v>54.23268595877373</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>29.0070089515158</v>
+        <v>-5.167886935798439</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>29.00700899043909</v>
+        <v>33.4196960674494</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>29.00700889929804</v>
+        <v>-4.81644245176933</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>29.00700893512795</v>
+        <v>32.41927342038156</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>29.00700892849002</v>
+        <v>45.64523650987283</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>29.00700893491436</v>
+        <v>48.32767960076406</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>29.00700893912977</v>
+        <v>-4.262938641697854</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>29.00700897719335</v>
+        <v>28.962982972663</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>29.00700895751924</v>
+        <v>27.87016931033036</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>29.00700896703451</v>
+        <v>32.19772695890047</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>29.00700897274794</v>
+        <v>-2.973708827208188</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>29.0070090103378</v>
+        <v>23.5376680662504</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>29.00700900185815</v>
+        <v>31.7094651162145</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>29.00700901203579</v>
+        <v>38.35158385384671</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>29.00700897990295</v>
+        <v>52.92113837387244</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>29.00700898977743</v>
+        <v>56.69101477008148</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>29.00700899384348</v>
+        <v>-1.44738828977804</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>29.00700903318443</v>
+        <v>42.28521859563713</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>29.00700902598794</v>
+        <v>66.33269924755831</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>29.00700903649699</v>
+        <v>70.09762485333647</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>29.00700898348117</v>
+        <v>48.94481034363832</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>29.00700899333862</v>
+        <v>54.58084605634635</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>29.00700899728352</v>
+        <v>-6.304978687830985</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>29.00700903646651</v>
+        <v>40.02875251671637</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>29.00700902947071</v>
+        <v>64.90474700748206</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>29.00700903994309</v>
+        <v>69.85510618895727</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>29.00700896896532</v>
+        <v>37.25876463376163</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>29.00700897872825</v>
+        <v>45.13380958731923</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>29.00700898455437</v>
+        <v>-3.717125699120661</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>29.00700902288212</v>
+        <v>37.98131816432151</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>29.00700901466042</v>
+        <v>55.85944746379715</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>29.00700902505384</v>
+        <v>64.57781956639897</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>29.00700888837774</v>
+        <v>12.05540246813427</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>29.00700892176419</v>
+        <v>33.37199456506298</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>29.00700891509409</v>
+        <v>37.40958707645643</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>29.00700892107846</v>
+        <v>38.06796407450589</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>29.00700892657431</v>
+        <v>10.9050591895097</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>29.00700896200235</v>
+        <v>28.0497838057381</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>29.00700890334084</v>
+        <v>7.594797874284957</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>29.00700893819061</v>
+        <v>39.88762012579843</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>29.00700893288073</v>
+        <v>58.14859898727448</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>29.00700893909968</v>
+        <v>57.83472254453545</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>29.00700894512704</v>
+        <v>7.116457985246912</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>29.00700898218335</v>
+        <v>38.49009791879702</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>29.00700890672734</v>
+        <v>4.744486260927733</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>29.00700894142211</v>
+        <v>38.62154932699804</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>29.0070089363604</v>
+        <v>58.82907654712528</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>29.00700894256325</v>
+        <v>59.47941257176964</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>29.00700894856309</v>
+        <v>2.582854816690162</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>29.00700898545696</v>
+        <v>35.28622083651938</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>29.00700889722669</v>
+        <v>4.121078782234211</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>29.00700893119797</v>
+        <v>35.85730813304703</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>29.00700892502226</v>
+        <v>51.24172247340684</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>29.00700893116253</v>
+        <v>53.49738770474774</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>29.0070089366865</v>
+        <v>4.446253078576394</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>29.00700897276286</v>
+        <v>32.21051555574501</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>29.0070089540114</v>
+        <v>31.23961343067776</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>29.00700896315214</v>
+        <v>35.7512973903744</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>29.00700896906125</v>
+        <v>3.014060184224935</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>29.00700900470344</v>
+        <v>24.63560261446015</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>29.00700899676623</v>
+        <v>35.31399084776103</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>29.00700900653416</v>
+        <v>41.09024822935409</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>29.00700897548753</v>
+        <v>55.05277863192582</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>29.00700898497777</v>
+        <v>59.14292453676205</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>29.00700898934471</v>
+        <v>5.330153458355081</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>29.00700902664755</v>
+        <v>43.30163684011976</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>29.00700901995366</v>
+        <v>69.75499546849245</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>29.00700903004774</v>
+        <v>72.91414558621116</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>29.0070089789773</v>
+        <v>52.08778034909579</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>29.0070089884518</v>
+        <v>57.96547024163479</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>29.00700899270517</v>
+        <v>1.48112674234271</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>29.00700902985843</v>
+        <v>41.96111489975077</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>29.0070090233603</v>
+        <v>69.2349475393121</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>29.00700903342079</v>
+        <v>73.5502395674328</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>29.00700896506647</v>
+        <v>41.88755738990842</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>29.00700897445032</v>
+        <v>49.76626632729972</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>29.00700898048956</v>
+        <v>3.432551072862374</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>29.00700901683064</v>
+        <v>39.68478785515508</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>29.00700900915469</v>
+        <v>59.87151561452963</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>29.00700901913758</v>
+        <v>67.67132581809877</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>29.00700888271692</v>
+        <v>3.068990145600328</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>29.00700891708092</v>
+        <v>27.6304205877149</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>29.00700890920795</v>
+        <v>27.96547817779353</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>29.00700891521003</v>
+        <v>29.95895240532252</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>29.00700891908866</v>
+        <v>0.8206084387091757</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>29.00700895570166</v>
+        <v>21.75338490822803</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>29.00700889746656</v>
+        <v>1.271855043782519</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>29.0070089333535</v>
+        <v>37.71662926422891</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>29.00700892674799</v>
+        <v>51.09444979326736</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>29.00700893298319</v>
+        <v>51.67399511640137</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>29.00700893742244</v>
+        <v>-0.2000737201056033</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>29.00700897572814</v>
+        <v>35.91816804989267</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>29.00700890082743</v>
+        <v>-2.445574915138888</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>29.00700893654924</v>
+        <v>35.34416921921947</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>29.00700893019461</v>
+        <v>50.80724890479503</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>29.00700893641545</v>
+        <v>52.38094276339793</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>29.00700894085788</v>
+        <v>-5.69295709306579</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>29.00700897899128</v>
+        <v>31.48762572643562</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>29.0070088912685</v>
+        <v>-5.08126404159184</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>29.00700892622096</v>
+        <v>29.37668782587036</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>29.00700891880743</v>
+        <v>41.05812352648864</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>29.00700892496377</v>
+        <v>44.85429619116243</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>29.00700892889912</v>
+        <v>-7.853494106199946</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>29.00700896617155</v>
+        <v>23.05920275783638</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>29.00700894658461</v>
+        <v>21.86284600469028</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>29.00700895561032</v>
+        <v>25.09111254100062</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>29.00700896307611</v>
+        <v>-4.439340560050102</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>29.00700899988615</v>
+        <v>20.06310518822099</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>29.00700899087462</v>
+        <v>25.02334519565231</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>29.00700900058995</v>
+        <v>31.61274312559503</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>29.00700896785047</v>
+        <v>47.73928163796568</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>29.00700897722172</v>
+        <v>50.24143943411303</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>29.00700898322919</v>
+        <v>-0.6073647257487558</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>29.0070090217683</v>
+        <v>41.42260096616874</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>29.00700901394208</v>
+        <v>60.11603695095765</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>29.00700902397797</v>
+        <v>63.76742736451985</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>29.00700897133216</v>
+        <v>43.49442268357231</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>29.00700898068905</v>
+        <v>47.88057294528156</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>29.00700898656982</v>
+        <v>-5.790210650326692</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>29.00700902495137</v>
+        <v>38.52204917820654</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>29.0070090173201</v>
+        <v>57.90856511417891</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>29.00700902732329</v>
+        <v>62.82609905632923</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>29.00700895731802</v>
+        <v>29.01866825474211</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>29.00700896657766</v>
+        <v>35.82602896464524</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>29.00700897421072</v>
+        <v>-6.933753529407287</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>29.0070090117357</v>
+        <v>31.64713972295317</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>29.00700900294699</v>
+        <v>45.31176245929755</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>29.00700901286916</v>
+        <v>54.15392429083349</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>29.00700887944222</v>
+        <v>2.003875435471496</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>29.00700891082886</v>
+        <v>12.31713988629845</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>29.00700890404431</v>
+        <v>12.91282722845887</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>29.00700890954639</v>
+        <v>14.59471859291375</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>29.00700891637072</v>
+        <v>4.837746234551997</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>29.00700894984914</v>
+        <v>16.60721794124775</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>29.00700889321496</v>
+        <v>-3.851866189715714</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>29.00700892599411</v>
+        <v>16.93026700521644</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>29.00700892045296</v>
+        <v>29.68220641119154</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>29.007008926174</v>
+        <v>30.45132458426392</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>29.00700893363892</v>
+        <v>3.469324060887526</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>29.00700896867374</v>
+        <v>29.01993596570764</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>29.00700889648204</v>
+        <v>-8.737907124432251</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>29.00700892911284</v>
+        <v>13.37126554205065</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>29.00700892380481</v>
+        <v>27.73928435684206</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>29.00700892951523</v>
+        <v>29.53211318710199</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>29.00700893695418</v>
+        <v>-2.285779829678749</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>29.00700897183269</v>
+        <v>24.27215712228733</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>29.00700888761168</v>
+        <v>-8.461954667643244</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>29.00700891954436</v>
+        <v>11.17749117371326</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>29.00700891320713</v>
+        <v>21.95257616202846</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>29.00700891886182</v>
+        <v>25.59467003858841</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>29.00700892578017</v>
+        <v>-1.896975409123346</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>29.00700895986815</v>
+        <v>19.29923703580002</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>29.00700894174172</v>
+        <v>15.27858834352416</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>29.00700895026387</v>
+        <v>21.40325423979482</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>29.00700895798799</v>
+        <v>-0.3647167717134536</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>29.00700899170937</v>
+        <v>15.4531012537629</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>29.0070089836578</v>
+        <v>19.16972880329755</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>29.00700899278725</v>
+        <v>26.90371417509873</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>29.00700896176655</v>
+        <v>39.03914402366757</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>29.00700897061847</v>
+        <v>44.99424786270046</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>29.00700897699359</v>
+        <v>5.200410187260513</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>29.00700901230609</v>
+        <v>36.99711241375472</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>29.00700900540748</v>
+        <v>54.40963504672989</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>29.0070090148439</v>
+        <v>59.84645484764886</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>29.00700896513024</v>
+        <v>34.30322075106942</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>29.00700897397267</v>
+        <v>42.16483871758123</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>29.00700898022842</v>
+        <v>0.2288456994241237</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>29.00700901539873</v>
+        <v>34.25101123121636</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>29.00700900868417</v>
+        <v>52.17446889958855</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>29.00700901809337</v>
+        <v>58.91520260172274</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>29.00700895202478</v>
+        <v>23.57435291698082</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>29.00700896078488</v>
+        <v>33.55514163464549</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>29.007008968654</v>
+        <v>-0.4891221791738438</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>29.00700900303829</v>
+        <v>28.79640503984462</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>29.00700899521556</v>
+        <v>40.77029209763506</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>29.00700900455441</v>
+        <v>51.08369485583745</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>29.00700888639059</v>
+        <v>1.388640425306686</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>29.00700891954825</v>
+        <v>18.8061441748376</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>29.00700891289765</v>
+        <v>21.24797065313297</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>29.00700891886667</v>
+        <v>22.91013020301316</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>29.0070089243731</v>
+        <v>1.391116560197045</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>29.00700895957561</v>
+        <v>15.16222797482104</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>29.00700890129314</v>
+        <v>-2.532622008261502</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>29.00700893590864</v>
+        <v>25.83144210365686</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>29.00700893061165</v>
+        <v>42.23630079870532</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>29.0070089368172</v>
+        <v>43.02478235353166</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>29.00700894286011</v>
+        <v>-1.8035239770286</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>29.00700897968592</v>
+        <v>26.17316927098261</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>29.00700890470298</v>
+        <v>-5.11809017975974</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>29.00700893916542</v>
+        <v>24.83478692705553</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>29.00700893411428</v>
+        <v>43.1202155067532</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>29.00700894030472</v>
+        <v>44.89778542332594</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>29.00700894631872</v>
+        <v>-6.116922094171553</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>29.00700898298384</v>
+        <v>23.1843873098797</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>29.00700889523365</v>
+        <v>-6.147820883512768</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>29.00700892897466</v>
+        <v>21.60853673895271</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>29.00700892281144</v>
+        <v>35.21109808479942</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>29.00700892893908</v>
+        <v>38.57738496199133</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>29.00700893447586</v>
+        <v>-4.595667674242872</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>29.00700897032459</v>
+        <v>19.69722511597627</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>29.0070089515537</v>
+        <v>15.82302968225971</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>29.00700896068909</v>
+        <v>22.17394763355872</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>29.00700896694062</v>
+        <v>-8.277807885795792</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>29.0070090023668</v>
+        <v>10.17373702932049</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>29.00700899439758</v>
+        <v>18.17471028579887</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>29.00700900415258</v>
+        <v>25.53903886763941</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>29.00700897295105</v>
+        <v>39.89606465527231</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>29.0070089824388</v>
+        <v>45.975865575027</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>29.00700898716508</v>
+        <v>-4.990961931325852</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>29.00700902424716</v>
+        <v>29.80414086331542</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>29.00700901751319</v>
+        <v>53.32410052857647</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>29.00700902759736</v>
+        <v>58.22666477398656</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>29.00700897646367</v>
+        <v>37.10504563892324</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>29.00700898593679</v>
+        <v>45.0031123033267</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>29.00700899054735</v>
+        <v>-8.543947560864684</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>29.00700902748166</v>
+        <v>28.76357358422188</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>29.00700902094235</v>
+        <v>53.0599185621834</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>29.00700903099403</v>
+        <v>59.15627090829521</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>29.00700896259206</v>
+        <v>26.7304344466203</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>29.00700897197416</v>
+        <v>36.58955096744068</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>29.00700897835986</v>
+        <v>-7.29007960300066</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>29.00700901448343</v>
+        <v>25.71277690470119</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>29.00700900677083</v>
+        <v>43.06762018813694</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>29.00700901674405</v>
+        <v>52.6173242718445</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>29.00700889249966</v>
+        <v>9.293802666553239</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>29.00700892499692</v>
+        <v>36.76230606854138</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>29.00700891847878</v>
+        <v>42.63317756555183</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>29.00700892407142</v>
+        <v>42.48173425392723</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>29.00700892725918</v>
+        <v>5.776747370206637</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>29.00700896180089</v>
+        <v>28.79244419659221</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>29.00700890661615</v>
+        <v>3.101871852698604</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>29.00700894052914</v>
+        <v>40.98516680169539</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>29.00700893528888</v>
+        <v>59.99633466880975</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>29.00700894109768</v>
+        <v>58.62502937298048</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>29.00700894482299</v>
+        <v>1.594591737494518</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>29.00700898094339</v>
+        <v>38.26609997435037</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>29.00700890973724</v>
+        <v>-0.6901284924769371</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>29.00700894349485</v>
+        <v>38.64870174904536</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>29.00700893848619</v>
+        <v>59.70421198450599</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>29.0070089442798</v>
+        <v>59.15925000478569</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>29.00700894802589</v>
+        <v>-2.986277022559747</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>29.00700898398438</v>
+        <v>34.89815634031149</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>29.00700890063015</v>
+        <v>-1.056601238662584</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>29.00700893368605</v>
+        <v>36.36756173805394</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>29.00700892762241</v>
+        <v>53.47191771226186</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>29.00700893335419</v>
+        <v>54.53074231186307</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>29.00700893664631</v>
+        <v>-1.473002964444326</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>29.00700897181449</v>
+        <v>31.739482794467</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>29.00700895407148</v>
+        <v>33.36951108440016</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>29.00700896258497</v>
+        <v>35.85540678349243</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>29.00700896838637</v>
+        <v>-1.195584146412831</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>29.00700900312273</v>
+        <v>25.96735553601985</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>29.00700899543979</v>
+        <v>36.28872081358507</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>29.00700900456332</v>
+        <v>41.15324460757827</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>29.0070089744433</v>
+        <v>54.79837263181913</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>29.00700898327987</v>
+        <v>56.6605888127537</v>
       </c>
     </row>
     <row r="992">
@@ -25421,7 +25421,7 @@
         </is>
       </c>
       <c r="E992" t="n">
-        <v>29.00700898765849</v>
+        <v>0.3710116050508532</v>
       </c>
     </row>
     <row r="993">
@@ -25446,7 +25446,7 @@
         </is>
       </c>
       <c r="E993" t="n">
-        <v>29.00700902400606</v>
+        <v>43.4216741690052</v>
       </c>
     </row>
     <row r="994">
@@ -25471,7 +25471,7 @@
         </is>
       </c>
       <c r="E994" t="n">
-        <v>29.00700901750736</v>
+        <v>67.72252452065253</v>
       </c>
     </row>
     <row r="995">
@@ -25496,7 +25496,7 @@
         </is>
       </c>
       <c r="E995" t="n">
-        <v>29.00700902693031</v>
+        <v>69.79137838988896</v>
       </c>
     </row>
     <row r="996">
@@ -25521,7 +25521,7 @@
         </is>
       </c>
       <c r="E996" t="n">
-        <v>29.00700897768745</v>
+        <v>51.69697509040455</v>
       </c>
     </row>
     <row r="997">
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="E997" t="n">
-        <v>29.00700898650891</v>
+        <v>55.18875551445548</v>
       </c>
     </row>
     <row r="998">
@@ -25571,7 +25571,7 @@
         </is>
       </c>
       <c r="E998" t="n">
-        <v>29.00700899078251</v>
+        <v>-3.609806738375116</v>
       </c>
     </row>
     <row r="999">
@@ -25596,7 +25596,7 @@
         </is>
       </c>
       <c r="E999" t="n">
-        <v>29.00700902698283</v>
+        <v>41.86531473218828</v>
       </c>
     </row>
     <row r="1000">
@@ -25621,7 +25621,7 @@
         </is>
       </c>
       <c r="E1000" t="n">
-        <v>29.00700902066465</v>
+        <v>66.93715475455443</v>
       </c>
     </row>
     <row r="1001">
@@ -25646,7 +25646,7 @@
         </is>
       </c>
       <c r="E1001" t="n">
-        <v>29.00700903005495</v>
+        <v>69.99941721657895</v>
       </c>
     </row>
     <row r="1002">
@@ -25671,7 +25671,7 @@
         </is>
       </c>
       <c r="E1002" t="n">
-        <v>29.00700896435304</v>
+        <v>42.36720390052676</v>
       </c>
     </row>
     <row r="1003">
@@ -25696,7 +25696,7 @@
         </is>
       </c>
       <c r="E1003" t="n">
-        <v>29.00700897308394</v>
+        <v>47.70151314436999</v>
       </c>
     </row>
     <row r="1004">
@@ -25721,7 +25721,7 @@
         </is>
       </c>
       <c r="E1004" t="n">
-        <v>29.00700897903204</v>
+        <v>-2.008493080212251</v>
       </c>
     </row>
     <row r="1005">
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="E1005" t="n">
-        <v>29.00700901444845</v>
+        <v>39.41196838635722</v>
       </c>
     </row>
     <row r="1006">
@@ -25771,7 +25771,7 @@
         </is>
       </c>
       <c r="E1006" t="n">
-        <v>29.00700900699426</v>
+        <v>58.5956285904424</v>
       </c>
     </row>
     <row r="1007">
@@ -25796,7 +25796,7 @@
         </is>
       </c>
       <c r="E1007" t="n">
-        <v>29.00700901630772</v>
+        <v>64.91578440726235</v>
       </c>
     </row>
     <row r="1008">
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="E1008" t="n">
-        <v>29.00700888481341</v>
+        <v>1.192186983764937</v>
       </c>
     </row>
     <row r="1009">
@@ -25846,7 +25846,7 @@
         </is>
       </c>
       <c r="E1009" t="n">
-        <v>29.00700891900782</v>
+        <v>26.15096020655727</v>
       </c>
     </row>
     <row r="1010">
@@ -25871,7 +25871,7 @@
         </is>
       </c>
       <c r="E1010" t="n">
-        <v>29.00700891139661</v>
+        <v>27.45891791726492</v>
       </c>
     </row>
     <row r="1011">
@@ -25896,7 +25896,7 @@
         </is>
       </c>
       <c r="E1011" t="n">
-        <v>29.00700891735026</v>
+        <v>28.86220677371007</v>
       </c>
     </row>
     <row r="1012">
@@ -25921,7 +25921,7 @@
         </is>
       </c>
       <c r="E1012" t="n">
-        <v>29.00700892104434</v>
+        <v>1.331641903001863</v>
       </c>
     </row>
     <row r="1013">
@@ -25946,7 +25946,7 @@
         </is>
       </c>
       <c r="E1013" t="n">
-        <v>29.00700895744758</v>
+        <v>22.44056949727596</v>
       </c>
     </row>
     <row r="1014">
@@ -25971,7 +25971,7 @@
         </is>
       </c>
       <c r="E1014" t="n">
-        <v>29.00700889958124</v>
+        <v>-0.06439737166980208</v>
       </c>
     </row>
     <row r="1015">
@@ -25996,7 +25996,7 @@
         </is>
       </c>
       <c r="E1015" t="n">
-        <v>29.00700893529271</v>
+        <v>36.80183847220312</v>
       </c>
     </row>
     <row r="1016">
@@ -26021,7 +26021,7 @@
         </is>
       </c>
       <c r="E1016" t="n">
-        <v>29.00700892895463</v>
+        <v>50.83919044818211</v>
       </c>
     </row>
     <row r="1017">
@@ -26046,7 +26046,7 @@
         </is>
       </c>
       <c r="E1017" t="n">
-        <v>29.0070089351388</v>
+        <v>50.86583653021096</v>
       </c>
     </row>
     <row r="1018">
@@ -26071,7 +26071,7 @@
         </is>
       </c>
       <c r="E1018" t="n">
-        <v>29.00700893936547</v>
+        <v>0.2214257068306686</v>
       </c>
     </row>
     <row r="1019">
@@ -26096,7 +26096,7 @@
         </is>
       </c>
       <c r="E1019" t="n">
-        <v>29.00700897745375</v>
+        <v>36.51971376641143</v>
       </c>
     </row>
     <row r="1020">
@@ -26121,7 +26121,7 @@
         </is>
       </c>
       <c r="E1020" t="n">
-        <v>29.00700890293056</v>
+        <v>-3.410596507400907</v>
       </c>
     </row>
     <row r="1021">
@@ -26146,7 +26146,7 @@
         </is>
       </c>
       <c r="E1021" t="n">
-        <v>29.00700893847883</v>
+        <v>34.83805584314492</v>
       </c>
     </row>
     <row r="1022">
@@ -26171,7 +26171,7 @@
         </is>
       </c>
       <c r="E1022" t="n">
-        <v>29.00700893238832</v>
+        <v>50.93204942056195</v>
       </c>
     </row>
     <row r="1023">
@@ -26196,7 +26196,7 @@
         </is>
       </c>
       <c r="E1023" t="n">
-        <v>29.00700893855833</v>
+        <v>51.9650173313763</v>
       </c>
     </row>
     <row r="1024">
@@ -26221,7 +26221,7 @@
         </is>
       </c>
       <c r="E1024" t="n">
-        <v>29.00700894278341</v>
+        <v>-5.0213702522835</v>
       </c>
     </row>
     <row r="1025">
@@ -26246,7 +26246,7 @@
         </is>
       </c>
       <c r="E1025" t="n">
-        <v>29.00700898070109</v>
+        <v>32.3911870201016</v>
       </c>
     </row>
     <row r="1026">
@@ -26271,7 +26271,7 @@
         </is>
       </c>
       <c r="E1026" t="n">
-        <v>29.0070088933918</v>
+        <v>-6.134224930803267</v>
       </c>
     </row>
     <row r="1027">
@@ -26296,7 +26296,7 @@
         </is>
       </c>
       <c r="E1027" t="n">
-        <v>29.00700892817429</v>
+        <v>28.80155785368639</v>
       </c>
     </row>
     <row r="1028">
@@ -26321,7 +26321,7 @@
         </is>
       </c>
       <c r="E1028" t="n">
-        <v>29.0070089210233</v>
+        <v>41.49343925946596</v>
       </c>
     </row>
     <row r="1029">
@@ -26346,7 +26346,7 @@
         </is>
       </c>
       <c r="E1029" t="n">
-        <v>29.00700892713106</v>
+        <v>44.72156325058472</v>
       </c>
     </row>
     <row r="1030">
@@ -26371,7 +26371,7 @@
         </is>
       </c>
       <c r="E1030" t="n">
-        <v>29.00700893086077</v>
+        <v>-6.837875703344213</v>
       </c>
     </row>
     <row r="1031">
@@ -26396,7 +26396,7 @@
         </is>
       </c>
       <c r="E1031" t="n">
-        <v>29.00700896792109</v>
+        <v>24.34429214707977</v>
       </c>
     </row>
     <row r="1032">
@@ -26421,7 +26421,7 @@
         </is>
       </c>
       <c r="E1032" t="n">
-        <v>29.00700894859045</v>
+        <v>22.4344012426258</v>
       </c>
     </row>
     <row r="1033">
@@ -26446,7 +26446,7 @@
         </is>
       </c>
       <c r="E1033" t="n">
-        <v>29.00700895757548</v>
+        <v>25.84025402176838</v>
       </c>
     </row>
     <row r="1034">
@@ -26471,7 +26471,7 @@
         </is>
       </c>
       <c r="E1034" t="n">
-        <v>29.00700896440904</v>
+        <v>-5.037409027938928</v>
       </c>
     </row>
     <row r="1035">
@@ -26496,7 +26496,7 @@
         </is>
       </c>
       <c r="E1035" t="n">
-        <v>29.00700900099621</v>
+        <v>19.13523795020294</v>
       </c>
     </row>
     <row r="1036">
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="E1036" t="n">
-        <v>29.00700899219597</v>
+        <v>23.07221700400502</v>
       </c>
     </row>
     <row r="1037">
@@ -26546,7 +26546,7 @@
         </is>
       </c>
       <c r="E1037" t="n">
-        <v>29.00700900186983</v>
+        <v>29.83086161388156</v>
       </c>
     </row>
     <row r="1038">
@@ -26571,7 +26571,7 @@
         </is>
       </c>
       <c r="E1038" t="n">
-        <v>29.00700896983538</v>
+        <v>48.01793265004454</v>
       </c>
     </row>
     <row r="1039">
@@ -26596,7 +26596,7 @@
         </is>
       </c>
       <c r="E1039" t="n">
-        <v>29.00700897916314</v>
+        <v>50.7085928119664</v>
       </c>
     </row>
     <row r="1040">
@@ -26621,7 +26621,7 @@
         </is>
       </c>
       <c r="E1040" t="n">
-        <v>29.00700898452576</v>
+        <v>-1.073853328324798</v>
       </c>
     </row>
     <row r="1041">
@@ -26646,7 +26646,7 @@
         </is>
       </c>
       <c r="E1041" t="n">
-        <v>29.00700902283382</v>
+        <v>40.60594896528683</v>
       </c>
     </row>
     <row r="1042">
@@ -26671,7 +26671,7 @@
         </is>
       </c>
       <c r="E1042" t="n">
-        <v>29.00700901521574</v>
+        <v>58.11187203530976</v>
       </c>
     </row>
     <row r="1043">
@@ -26696,7 +26696,7 @@
         </is>
       </c>
       <c r="E1043" t="n">
-        <v>29.00700902520807</v>
+        <v>61.9452794099797</v>
       </c>
     </row>
     <row r="1044">
@@ -26721,7 +26721,7 @@
         </is>
       </c>
       <c r="E1044" t="n">
-        <v>29.00700897329826</v>
+        <v>44.08139842212818</v>
       </c>
     </row>
     <row r="1045">
@@ -26746,7 +26746,7 @@
         </is>
       </c>
       <c r="E1045" t="n">
-        <v>29.00700898261185</v>
+        <v>48.63852037132114</v>
       </c>
     </row>
     <row r="1046">
@@ -26771,7 +26771,7 @@
         </is>
       </c>
       <c r="E1046" t="n">
-        <v>29.00700898785107</v>
+        <v>-6.038099271949182</v>
       </c>
     </row>
     <row r="1047">
@@ -26796,7 +26796,7 @@
         </is>
       </c>
       <c r="E1047" t="n">
-        <v>29.00700902600308</v>
+        <v>37.96830110129778</v>
       </c>
     </row>
     <row r="1048">
@@ -26821,7 +26821,7 @@
         </is>
       </c>
       <c r="E1048" t="n">
-        <v>29.00700901857711</v>
+        <v>56.19231275302879</v>
       </c>
     </row>
     <row r="1049">
@@ -26846,7 +26846,7 @@
         </is>
       </c>
       <c r="E1049" t="n">
-        <v>29.00700902853715</v>
+        <v>61.28345555465782</v>
       </c>
     </row>
     <row r="1050">
@@ -26871,7 +26871,7 @@
         </is>
       </c>
       <c r="E1050" t="n">
-        <v>29.00700895932859</v>
+        <v>30.26840699655819</v>
       </c>
     </row>
     <row r="1051">
@@ -26896,7 +26896,7 @@
         </is>
       </c>
       <c r="E1051" t="n">
-        <v>29.00700896854762</v>
+        <v>37.2456481758348</v>
       </c>
     </row>
     <row r="1052">
@@ -26921,7 +26921,7 @@
         </is>
       </c>
       <c r="E1052" t="n">
-        <v>29.00700897553176</v>
+        <v>-7.08198296503981</v>
       </c>
     </row>
     <row r="1053">
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="E1053" t="n">
-        <v>29.00700901283034</v>
+        <v>31.23057137532398</v>
       </c>
     </row>
     <row r="1054">
@@ -26971,7 +26971,7 @@
         </is>
       </c>
       <c r="E1054" t="n">
-        <v>29.00700900425244</v>
+        <v>43.97386283726935</v>
       </c>
     </row>
     <row r="1055">
@@ -26996,7 +26996,7 @@
         </is>
       </c>
       <c r="E1055" t="n">
-        <v>29.00700901413412</v>
+        <v>53.01169758985782</v>
       </c>
     </row>
   </sheetData>
